--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1637657.79044882</v>
+        <v>1577199.961646137</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1780849.967622599</v>
+        <v>1780849.9676226</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12729275.31659874</v>
+        <v>12729275.31659875</v>
       </c>
     </row>
     <row r="9">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.3090657029312</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>118.3090657029312</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.00576152624524</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.7338817492253</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>188.2154393402091</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>213.9920927263623</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.8512977948128</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>239.7456938063071</v>
       </c>
       <c r="X12" t="n">
-        <v>193.823695848865</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>179.5631426117575</v>
+        <v>193.7334064226918</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>167.8826908273248</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.19448517584402</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.21275389708187</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.5442196348166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>137.9198285865372</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>197.0707802316328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1465602095188</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>239.396363553224</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>149.7947196955065</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>52.63870590365939</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.1199230387714</v>
       </c>
       <c r="G15" t="n">
-        <v>125.3942278085981</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.2861548818839</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>77.44734349680256</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.8512977948128</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>94.86971343068842</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>193.7334064226918</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>45.57599043052304</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>143.5011855726458</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.21275389708187</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.5442196348166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>148.1767943710715</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>137.9198285865372</v>
       </c>
       <c r="S17" t="n">
         <v>197.0707802316328</v>
@@ -1900,13 +1900,13 @@
         <v>211.1465602095188</v>
       </c>
       <c r="U17" t="n">
-        <v>239.396363553224</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>46.70025940438462</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>154.5838942952548</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.7592096337032</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>135.4957762100262</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.6957911007884</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.1199230387714</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>100.2861548818839</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>77.44734349680256</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>97.45818966298133</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>239.7456938063071</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>193.823695848865</v>
       </c>
       <c r="Y18" t="n">
-        <v>161.0600826579601</v>
+        <v>193.7334064226918</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>155.2975317440153</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.21275389708187</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>114.8644221060869</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>33.77964425915349</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>154.5838942952548</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>49.97888947236888</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.6957911007884</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>125.3942278085981</v>
+        <v>89.73862696402175</v>
       </c>
       <c r="H21" t="n">
-        <v>100.2861548818839</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>77.44734349680256</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>88.20854479803062</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.7338817492253</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.8512977948128</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>193.823695848865</v>
       </c>
       <c r="Y21" t="n">
         <v>193.7334064226918</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.344102022557</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>189.0771760031688</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>23.73307398061182</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>232.1339671671784</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>178.2060561339632</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>117.5992845047069</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>176.7502361498026</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>190.8260161276886</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>219.0758194713937</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>263.5490090453888</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>263.5490090453888</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>263.5490090453888</v>
+        <v>140.3235819157902</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>110.3654328615329</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>85.53084166494048</v>
       </c>
       <c r="E24" t="n">
-        <v>125.3752470189583</v>
+        <v>125.3752470189582</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>57.12679941497232</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>67.88800071620037</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>139.4133376673951</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>193.6715486445322</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>200.5307537129826</v>
+        <v>200.5307537129825</v>
       </c>
       <c r="W24" t="n">
-        <v>219.425149724477</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>173.5031517670347</v>
       </c>
       <c r="Y24" t="n">
-        <v>173.4128623408617</v>
+        <v>173.4128623408616</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>134.9769876621852</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.1806414908157</v>
+        <v>105.0195151360932</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>40.30170793568593</v>
+        <v>193.4398219525944</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>263.5490090453889</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>232.1339671671784</v>
+        <v>263.5490090453889</v>
       </c>
       <c r="F26" t="n">
-        <v>263.5490090453888</v>
+        <v>263.5490090453889</v>
       </c>
       <c r="G26" t="n">
-        <v>263.5490090453888</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>263.5490090453888</v>
+        <v>232.1339671671786</v>
       </c>
     </row>
     <row r="27">
@@ -2636,25 +2636,25 @@
         <v>134.2633502134247</v>
       </c>
       <c r="C27" t="n">
-        <v>140.4386655518731</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>115.1752321281961</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>125.3752470189583</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>112.7993789569412</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>105.073683726768</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>46.31626052835636</v>
       </c>
       <c r="I27" t="n">
-        <v>27.55442002238432</v>
+        <v>57.12679941497242</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>139.4133376673952</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>173.5031517670348</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>173.4128623408617</v>
       </c>
     </row>
     <row r="28">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>105.0195151360926</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.1806414908156</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>61.08934668023012</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>114.1893489176413</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>193.4398219525945</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>263.5490090453889</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>263.5490090453888</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>263.5490090453888</v>
       </c>
       <c r="H29" t="n">
-        <v>263.5490090453889</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>178.2060561339633</v>
+        <v>114.5346826624714</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>117.599284504707</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>53.92791103321529</v>
+        <v>263.5490090453888</v>
       </c>
       <c r="X29" t="n">
-        <v>263.5490090453889</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.1752321281961</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>105.073683726768</v>
       </c>
       <c r="H30" t="n">
-        <v>79.96561080005381</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>57.12679941497242</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>167.8948952583789</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>193.6715486445322</v>
       </c>
       <c r="V30" t="n">
         <v>200.5307537129826</v>
       </c>
       <c r="W30" t="n">
-        <v>219.425149724477</v>
+        <v>43.43647469543409</v>
       </c>
       <c r="X30" t="n">
-        <v>115.62755086726</v>
+        <v>173.5031517670348</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.59152720130167</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>102.7835810968483</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>195.6757559918388</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>219.8678098873854</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>273.9824260862227</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>273.9824260862227</v>
       </c>
       <c r="G32" t="n">
-        <v>241.323720896745</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>135.6737257466505</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>105.6499951500945</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>273.9824260862227</v>
       </c>
       <c r="W32" t="n">
-        <v>273.9824260862227</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>273.9824260862227</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>273.9824260862227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,13 +3113,13 @@
         <v>128.4893761972606</v>
       </c>
       <c r="D33" t="n">
-        <v>103.2259427735836</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>100.8500896023287</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>55.93871136158796</v>
       </c>
       <c r="S33" t="n">
-        <v>127.4640483127827</v>
+        <v>127.4640483127826</v>
       </c>
       <c r="T33" t="n">
-        <v>155.9456059037664</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>71.45361528431287</v>
       </c>
       <c r="V33" t="n">
-        <v>163.5183025206299</v>
+        <v>188.5814643583701</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>207.4758603698644</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>161.5538624124223</v>
       </c>
       <c r="Y33" t="n">
-        <v>161.4635729862492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>111.2313521362031</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.94292046063921</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>242.0999065654357</v>
       </c>
       <c r="V34" t="n">
-        <v>41.18852490953937</v>
+        <v>126.6284215019858</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3655305610396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>202.6607113588081</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>105.6499951500945</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>178.8767267730762</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>207.1265301167813</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>128.4893761972606</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>113.4259576643458</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>8.337682961373222</v>
+        <v>34.53123285959349</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>127.4640483127827</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>181.7222592899196</v>
       </c>
       <c r="V36" t="n">
         <v>188.5814643583701</v>
@@ -3413,7 +3413,7 @@
         <v>161.5538624124223</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>161.4635729862492</v>
       </c>
     </row>
     <row r="37">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>92.14795765086787</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>102.214839855514</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>179.7974752459171</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>188.9308528215044</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3655305610396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,26 +3502,26 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>184.0246624349085</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>125.9705392319247</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.1214908770204</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>199.1972708549064</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>121.1706336841588</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>113.4449384539856</v>
+        <v>113.4449384539857</v>
       </c>
       <c r="H39" t="n">
-        <v>88.3368655272714</v>
+        <v>88.33686552727153</v>
       </c>
       <c r="I39" t="n">
-        <v>30.1914102931236</v>
+        <v>65.49805414219014</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.25925544341807</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>147.7845923946128</v>
+        <v>49.56586419299733</v>
       </c>
       <c r="T39" t="n">
-        <v>176.2661499855965</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>208.9020084402003</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.7964044516947</v>
       </c>
       <c r="X39" t="n">
-        <v>181.8744064942524</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>181.7841170680794</v>
       </c>
     </row>
     <row r="40">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.42025985999901</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>8.217047662151458</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>201.8110766798121</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>118.3090657029312</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>137.9198285865372</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>197.0707802316328</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>145.6957911007884</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>133.1199230387714</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>125.3942278085981</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>100.2861548818839</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>77.44734349680256</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.7338817492253</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>77.36486727446025</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>203.4602213296318</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.8512977948128</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>239.7456938063071</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>193.823695848865</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7334064226918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>107.6672852411085</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.40989076206026</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>74.21275389708187</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>114.8644221060869</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>45.08233407994951</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.756750758358361</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>197.0707802316328</v>
       </c>
       <c r="T44" t="n">
         <v>211.1465602095188</v>
       </c>
       <c r="U44" t="n">
-        <v>239.396363553224</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.64161998084889</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>77.44734349680256</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.7338817492253</v>
       </c>
       <c r="T45" t="n">
-        <v>188.2154393402091</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>213.9920927263623</v>
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>239.7456938063071</v>
+        <v>96.59783203247221</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>193.823695848865</v>
       </c>
       <c r="Y45" t="n">
         <v>193.7334064226918</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>136.6661836635998</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>45.57599043052304</v>
+        <v>52.41099233956896</v>
       </c>
       <c r="I46" t="n">
-        <v>143.5011855726458</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>625.6828031690504</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>382.2340265249504</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>382.2340265249504</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>382.2340265249504</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>382.2340265249504</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>138.7852498808503</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>138.7852498808503</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5074,19 +5074,19 @@
         <v>625.6828031690504</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>625.6828031690504</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>625.6828031690504</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>625.6828031690504</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>625.6828031690504</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>625.6828031690504</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>86.96373051046044</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>86.96373051046044</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>86.96373051046044</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>86.96373051046044</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>86.96373051046044</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>86.96373051046044</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>86.96373051046044</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5123,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>802.7098002083884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>612.5931948142378</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>396.4395657977102</v>
+        <v>747.9035264941086</v>
       </c>
       <c r="V12" t="n">
-        <v>396.4395657977102</v>
+        <v>524.8214075094493</v>
       </c>
       <c r="W12" t="n">
-        <v>396.4395657977102</v>
+        <v>282.654040028331</v>
       </c>
       <c r="X12" t="n">
-        <v>200.6580548392607</v>
+        <v>282.654040028331</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>86.96373051046044</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.70559005088983</v>
+        <v>40.68971399490366</v>
       </c>
       <c r="C13" t="n">
-        <v>29.70559005088983</v>
+        <v>40.68971399490366</v>
       </c>
       <c r="D13" t="n">
-        <v>29.70559005088983</v>
+        <v>40.68971399490366</v>
       </c>
       <c r="E13" t="n">
-        <v>29.70559005088983</v>
+        <v>40.68971399490366</v>
       </c>
       <c r="F13" t="n">
-        <v>29.70559005088983</v>
+        <v>40.68971399490366</v>
       </c>
       <c r="G13" t="n">
-        <v>29.70559005088983</v>
+        <v>40.68971399490366</v>
       </c>
       <c r="H13" t="n">
-        <v>29.70559005088983</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>29.70559005088983</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>29.70559005088983</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5220,31 +5220,31 @@
         <v>210.26818957806</v>
       </c>
       <c r="Q13" t="n">
-        <v>135.3058119042399</v>
+        <v>210.26818957806</v>
       </c>
       <c r="R13" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="S13" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="T13" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="U13" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="V13" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="W13" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="X13" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>824.7441973424169</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>625.6828031690504</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>412.4034494220617</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>170.5889407824415</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300.4115356295475</v>
+        <v>231.9753517320046</v>
       </c>
       <c r="C15" t="n">
-        <v>247.2411256258512</v>
+        <v>231.9753517320046</v>
       </c>
       <c r="D15" t="n">
-        <v>247.2411256258512</v>
+        <v>231.9753517320046</v>
       </c>
       <c r="E15" t="n">
-        <v>247.2411256258512</v>
+        <v>231.9753517320046</v>
       </c>
       <c r="F15" t="n">
-        <v>247.2411256258512</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="G15" t="n">
-        <v>120.58028945555</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5360,22 +5360,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O15" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5393,16 +5393,16 @@
         <v>523.4936546142069</v>
       </c>
       <c r="V15" t="n">
-        <v>300.4115356295475</v>
+        <v>523.4936546142069</v>
       </c>
       <c r="W15" t="n">
-        <v>300.4115356295475</v>
+        <v>523.4936546142069</v>
       </c>
       <c r="X15" t="n">
-        <v>300.4115356295475</v>
+        <v>427.6656612498751</v>
       </c>
       <c r="Y15" t="n">
-        <v>300.4115356295475</v>
+        <v>231.9753517320046</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.70559005088983</v>
+        <v>164.2318356078347</v>
       </c>
       <c r="C16" t="n">
-        <v>29.70559005088983</v>
+        <v>164.2318356078347</v>
       </c>
       <c r="D16" t="n">
-        <v>29.70559005088983</v>
+        <v>164.2318356078347</v>
       </c>
       <c r="E16" t="n">
-        <v>29.70559005088983</v>
+        <v>164.2318356078347</v>
       </c>
       <c r="F16" t="n">
-        <v>29.70559005088983</v>
+        <v>164.2318356078347</v>
       </c>
       <c r="G16" t="n">
-        <v>29.70559005088983</v>
+        <v>164.2318356078347</v>
       </c>
       <c r="H16" t="n">
-        <v>29.70559005088983</v>
+        <v>164.2318356078347</v>
       </c>
       <c r="I16" t="n">
-        <v>29.70559005088983</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>29.70559005088983</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5457,31 +5457,31 @@
         <v>210.26818957806</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.3058119042399</v>
+        <v>210.26818957806</v>
       </c>
       <c r="R16" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="S16" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="T16" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="U16" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="V16" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="W16" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="X16" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.70559005088983</v>
+        <v>210.26818957806</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>412.4034494220617</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>412.4034494220617</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9546727779617</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9546727779617</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>824.7441973424169</v>
       </c>
       <c r="S17" t="n">
-        <v>764.9957613372698</v>
+        <v>625.6828031690504</v>
       </c>
       <c r="T17" t="n">
-        <v>551.7164075902811</v>
+        <v>412.4034494220617</v>
       </c>
       <c r="U17" t="n">
-        <v>309.9018989506609</v>
+        <v>412.4034494220617</v>
       </c>
       <c r="V17" t="n">
-        <v>66.45312230656083</v>
+        <v>412.4034494220617</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>412.4034494220617</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>412.4034494220617</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>412.4034494220617</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>645.2248555578939</v>
+        <v>231.9753517320046</v>
       </c>
       <c r="C18" t="n">
-        <v>482.8418155238502</v>
+        <v>231.9753517320046</v>
       </c>
       <c r="D18" t="n">
-        <v>345.9773951096823</v>
+        <v>231.9753517320046</v>
       </c>
       <c r="E18" t="n">
-        <v>198.8099293513102</v>
+        <v>231.9753517320046</v>
       </c>
       <c r="F18" t="n">
-        <v>198.8099293513102</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="G18" t="n">
-        <v>198.8099293513102</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="H18" t="n">
         <v>97.5107830059729</v>
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>865.6145396894429</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>865.6145396894429</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>865.6145396894429</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>865.6145396894429</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>623.4471722083247</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>427.6656612498751</v>
       </c>
       <c r="Y18" t="n">
-        <v>801.3702033308786</v>
+        <v>231.9753517320046</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>176.1473367910363</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5694,31 +5694,31 @@
         <v>210.26818957806</v>
       </c>
       <c r="Q19" t="n">
-        <v>135.3058119042399</v>
+        <v>210.26818957806</v>
       </c>
       <c r="R19" t="n">
-        <v>135.3058119042399</v>
+        <v>210.26818957806</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>210.26818957806</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>210.26818957806</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>176.1473367910363</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>176.1473367910363</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>176.1473367910363</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>176.1473367910363</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>176.1473367910363</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5788,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>523.1219580197501</v>
+        <v>188.155860747409</v>
       </c>
       <c r="C21" t="n">
-        <v>472.6382312799835</v>
+        <v>188.155860747409</v>
       </c>
       <c r="D21" t="n">
-        <v>472.6382312799835</v>
+        <v>188.155860747409</v>
       </c>
       <c r="E21" t="n">
-        <v>325.4707655216114</v>
+        <v>188.155860747409</v>
       </c>
       <c r="F21" t="n">
-        <v>325.4707655216114</v>
+        <v>188.155860747409</v>
       </c>
       <c r="G21" t="n">
-        <v>198.8099293513102</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="H21" t="n">
         <v>97.5107830059729</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>874.9576153106053</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>874.9576153106053</v>
+        <v>802.7098002083884</v>
       </c>
       <c r="T21" t="n">
-        <v>874.9576153106053</v>
+        <v>802.7098002083884</v>
       </c>
       <c r="U21" t="n">
-        <v>874.9576153106053</v>
+        <v>802.7098002083884</v>
       </c>
       <c r="V21" t="n">
-        <v>874.9576153106053</v>
+        <v>579.627681223729</v>
       </c>
       <c r="W21" t="n">
-        <v>874.9576153106053</v>
+        <v>579.627681223729</v>
       </c>
       <c r="X21" t="n">
-        <v>874.9576153106053</v>
+        <v>383.8461702652796</v>
       </c>
       <c r="Y21" t="n">
-        <v>679.2673057927348</v>
+        <v>188.155860747409</v>
       </c>
     </row>
     <row r="22">
@@ -5934,22 +5934,22 @@
         <v>210.26818957806</v>
       </c>
       <c r="R22" t="n">
-        <v>210.26818957806</v>
+        <v>43.25394511083073</v>
       </c>
       <c r="S22" t="n">
-        <v>210.26818957806</v>
+        <v>43.25394511083073</v>
       </c>
       <c r="T22" t="n">
-        <v>210.26818957806</v>
+        <v>43.25394511083073</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>43.25394511083073</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>43.25394511083073</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>43.25394511083073</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>255.5626754379527</v>
+        <v>201.0900380306646</v>
       </c>
       <c r="C23" t="n">
-        <v>255.5626754379527</v>
+        <v>201.0900380306646</v>
       </c>
       <c r="D23" t="n">
-        <v>21.08392072363111</v>
+        <v>201.0900380306646</v>
       </c>
       <c r="E23" t="n">
-        <v>21.08392072363111</v>
+        <v>201.0900380306646</v>
       </c>
       <c r="F23" t="n">
-        <v>21.08392072363111</v>
+        <v>201.0900380306646</v>
       </c>
       <c r="G23" t="n">
-        <v>21.08392072363111</v>
+        <v>201.0900380306646</v>
       </c>
       <c r="H23" t="n">
-        <v>21.08392072363111</v>
+        <v>201.0900380306646</v>
       </c>
       <c r="I23" t="n">
         <v>21.08392072363111</v>
       </c>
       <c r="J23" t="n">
-        <v>41.20125936464292</v>
+        <v>41.20125936464297</v>
       </c>
       <c r="K23" t="n">
         <v>144.2162652755653</v>
       </c>
       <c r="L23" t="n">
-        <v>324.2921168602238</v>
+        <v>324.2921168602239</v>
       </c>
       <c r="M23" t="n">
-        <v>545.5922383354605</v>
+        <v>541.2677441231281</v>
       </c>
       <c r="N23" t="n">
-        <v>783.393895644778</v>
+        <v>779.0694014324457</v>
       </c>
       <c r="O23" t="n">
-        <v>932.5888457874261</v>
+        <v>928.2643515750938</v>
       </c>
       <c r="P23" t="n">
-        <v>1054.196036181555</v>
+        <v>1049.871541969223</v>
       </c>
       <c r="Q23" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="R23" t="n">
-        <v>1054.196036181555</v>
+        <v>935.4088801161951</v>
       </c>
       <c r="S23" t="n">
-        <v>1054.196036181555</v>
+        <v>756.8732880456873</v>
       </c>
       <c r="T23" t="n">
-        <v>1054.196036181555</v>
+        <v>564.1197364015575</v>
       </c>
       <c r="U23" t="n">
-        <v>1054.196036181555</v>
+        <v>342.8310298647961</v>
       </c>
       <c r="V23" t="n">
-        <v>1054.196036181555</v>
+        <v>342.8310298647961</v>
       </c>
       <c r="W23" t="n">
-        <v>787.9849159336877</v>
+        <v>342.8310298647961</v>
       </c>
       <c r="X23" t="n">
-        <v>521.7737956858202</v>
+        <v>342.8310298647961</v>
       </c>
       <c r="Y23" t="n">
-        <v>255.5626754379527</v>
+        <v>201.0900380306646</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>147.7255843791446</v>
+        <v>291.8242117325917</v>
       </c>
       <c r="C24" t="n">
-        <v>147.7255843791446</v>
+        <v>291.8242117325917</v>
       </c>
       <c r="D24" t="n">
-        <v>147.7255843791446</v>
+        <v>205.4294221720458</v>
       </c>
       <c r="E24" t="n">
-        <v>21.08392072363111</v>
+        <v>78.78775851653245</v>
       </c>
       <c r="F24" t="n">
-        <v>21.08392072363111</v>
+        <v>78.78775851653245</v>
       </c>
       <c r="G24" t="n">
-        <v>21.08392072363111</v>
+        <v>78.78775851653245</v>
       </c>
       <c r="H24" t="n">
-        <v>21.08392072363111</v>
+        <v>78.78775851653245</v>
       </c>
       <c r="I24" t="n">
         <v>21.08392072363111</v>
@@ -6074,46 +6074,46 @@
         <v>146.4414807814685</v>
       </c>
       <c r="L24" t="n">
-        <v>376.4045866498176</v>
+        <v>376.4045866498177</v>
       </c>
       <c r="M24" t="n">
-        <v>637.3181056047525</v>
+        <v>637.3181056047526</v>
       </c>
       <c r="N24" t="n">
-        <v>802.1580000548749</v>
+        <v>736.0480635842641</v>
       </c>
       <c r="O24" t="n">
-        <v>802.1580000548749</v>
+        <v>984.8014776682263</v>
       </c>
       <c r="P24" t="n">
-        <v>984.8014776682259</v>
+        <v>984.8014776682263</v>
       </c>
       <c r="Q24" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="R24" t="n">
-        <v>1054.196036181555</v>
+        <v>985.6222980843836</v>
       </c>
       <c r="S24" t="n">
-        <v>1054.196036181555</v>
+        <v>844.8007448849946</v>
       </c>
       <c r="T24" t="n">
-        <v>1054.196036181555</v>
+        <v>844.8007448849946</v>
       </c>
       <c r="U24" t="n">
-        <v>858.5682092678862</v>
+        <v>844.8007448849946</v>
       </c>
       <c r="V24" t="n">
-        <v>656.0118923860856</v>
+        <v>642.2444280031941</v>
       </c>
       <c r="W24" t="n">
-        <v>434.3703270078261</v>
+        <v>642.2444280031941</v>
       </c>
       <c r="X24" t="n">
-        <v>434.3703270078261</v>
+        <v>466.9887191476035</v>
       </c>
       <c r="Y24" t="n">
-        <v>259.2058195928142</v>
+        <v>291.8242117325917</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>281.8492026963593</v>
+        <v>127.1642390429172</v>
       </c>
       <c r="C25" t="n">
-        <v>145.5088111183944</v>
+        <v>127.1642390429172</v>
       </c>
       <c r="D25" t="n">
-        <v>145.5088111183944</v>
+        <v>127.1642390429172</v>
       </c>
       <c r="E25" t="n">
-        <v>145.5088111183944</v>
+        <v>127.1642390429172</v>
       </c>
       <c r="F25" t="n">
-        <v>145.5088111183944</v>
+        <v>127.1642390429172</v>
       </c>
       <c r="G25" t="n">
-        <v>145.5088111183944</v>
+        <v>127.1642390429172</v>
       </c>
       <c r="H25" t="n">
-        <v>145.5088111183944</v>
+        <v>127.1642390429172</v>
       </c>
       <c r="I25" t="n">
         <v>21.08392072363111</v>
@@ -6150,49 +6150,49 @@
         <v>21.08392072363111</v>
       </c>
       <c r="K25" t="n">
-        <v>30.98425891808528</v>
+        <v>30.98425891808542</v>
       </c>
       <c r="L25" t="n">
-        <v>90.24551902787645</v>
+        <v>90.24551902787672</v>
       </c>
       <c r="M25" t="n">
-        <v>161.3806923221768</v>
+        <v>161.3806923221772</v>
       </c>
       <c r="N25" t="n">
-        <v>237.0186780796913</v>
+        <v>237.0186780796919</v>
       </c>
       <c r="O25" t="n">
-        <v>293.3050898166688</v>
+        <v>293.3050898166695</v>
       </c>
       <c r="P25" t="n">
-        <v>322.5579985909915</v>
+        <v>322.5579985909923</v>
       </c>
       <c r="Q25" t="n">
-        <v>322.5579985909915</v>
+        <v>322.5579985909923</v>
       </c>
       <c r="R25" t="n">
-        <v>322.5579985909915</v>
+        <v>322.5579985909923</v>
       </c>
       <c r="S25" t="n">
-        <v>322.5579985909915</v>
+        <v>322.5579985909923</v>
       </c>
       <c r="T25" t="n">
-        <v>322.5579985909915</v>
+        <v>322.5579985909923</v>
       </c>
       <c r="U25" t="n">
-        <v>322.5579985909915</v>
+        <v>322.5579985909923</v>
       </c>
       <c r="V25" t="n">
-        <v>322.5579985909915</v>
+        <v>322.5579985909923</v>
       </c>
       <c r="W25" t="n">
-        <v>322.5579985909915</v>
+        <v>322.5579985909923</v>
       </c>
       <c r="X25" t="n">
-        <v>281.8492026963593</v>
+        <v>127.1642390429172</v>
       </c>
       <c r="Y25" t="n">
-        <v>281.8492026963593</v>
+        <v>127.1642390429172</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>787.9849159336877</v>
+        <v>553.5061612193663</v>
       </c>
       <c r="C26" t="n">
-        <v>787.9849159336877</v>
+        <v>553.5061612193663</v>
       </c>
       <c r="D26" t="n">
-        <v>787.9849159336877</v>
+        <v>553.5061612193663</v>
       </c>
       <c r="E26" t="n">
-        <v>553.506161219366</v>
+        <v>287.2950409714987</v>
       </c>
       <c r="F26" t="n">
-        <v>287.2950409714986</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="G26" t="n">
         <v>21.08392072363111</v>
@@ -6226,52 +6226,52 @@
         <v>21.08392072363111</v>
       </c>
       <c r="J26" t="n">
-        <v>23.46941069729647</v>
+        <v>41.20125936464295</v>
       </c>
       <c r="K26" t="n">
-        <v>126.4844166082188</v>
+        <v>176.1634003776439</v>
       </c>
       <c r="L26" t="n">
-        <v>306.5602681928774</v>
+        <v>370.4545383970342</v>
       </c>
       <c r="M26" t="n">
-        <v>523.5358954557815</v>
+        <v>587.4301656599383</v>
       </c>
       <c r="N26" t="n">
-        <v>761.3375527650992</v>
+        <v>793.2846878671776</v>
       </c>
       <c r="O26" t="n">
-        <v>942.4796380098254</v>
+        <v>942.4796380098256</v>
       </c>
       <c r="P26" t="n">
-        <v>1032.139693301876</v>
+        <v>1032.139693301877</v>
       </c>
       <c r="Q26" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="R26" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="S26" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="T26" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="U26" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="V26" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="W26" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="X26" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="Y26" t="n">
-        <v>787.9849159336877</v>
+        <v>819.7172814672339</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>547.6929547421696</v>
+        <v>231.7068941277693</v>
       </c>
       <c r="C27" t="n">
-        <v>405.8357168109846</v>
+        <v>231.7068941277693</v>
       </c>
       <c r="D27" t="n">
-        <v>289.4970984996754</v>
+        <v>231.7068941277693</v>
       </c>
       <c r="E27" t="n">
-        <v>162.855434844162</v>
+        <v>231.7068941277693</v>
       </c>
       <c r="F27" t="n">
-        <v>48.91666822098901</v>
+        <v>231.7068941277693</v>
       </c>
       <c r="G27" t="n">
-        <v>48.91666822098901</v>
+        <v>125.5718600603269</v>
       </c>
       <c r="H27" t="n">
-        <v>48.91666822098901</v>
+        <v>78.78775851653255</v>
       </c>
       <c r="I27" t="n">
         <v>21.08392072363111</v>
@@ -6311,46 +6311,46 @@
         <v>146.4414807814685</v>
       </c>
       <c r="L27" t="n">
-        <v>146.4414807814685</v>
+        <v>376.4045866498177</v>
       </c>
       <c r="M27" t="n">
-        <v>292.4910670159778</v>
+        <v>637.3181056047526</v>
       </c>
       <c r="N27" t="n">
-        <v>553.4045859709126</v>
+        <v>871.5525585682049</v>
       </c>
       <c r="O27" t="n">
-        <v>802.1580000548749</v>
+        <v>871.5525585682049</v>
       </c>
       <c r="P27" t="n">
-        <v>984.8014776682259</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="Q27" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="R27" t="n">
-        <v>1054.196036181555</v>
+        <v>1054.196036181556</v>
       </c>
       <c r="S27" t="n">
-        <v>1054.196036181555</v>
+        <v>913.3744829821666</v>
       </c>
       <c r="T27" t="n">
-        <v>1054.196036181555</v>
+        <v>913.3744829821666</v>
       </c>
       <c r="U27" t="n">
-        <v>858.5682092678863</v>
+        <v>717.7466560684977</v>
       </c>
       <c r="V27" t="n">
-        <v>858.5682092678863</v>
+        <v>717.7466560684977</v>
       </c>
       <c r="W27" t="n">
-        <v>858.5682092678863</v>
+        <v>717.7466560684977</v>
       </c>
       <c r="X27" t="n">
-        <v>683.3125004122955</v>
+        <v>542.490947212907</v>
       </c>
       <c r="Y27" t="n">
-        <v>683.3125004122955</v>
+        <v>367.3264397978952</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>207.2152219065056</v>
+        <v>127.1642390429166</v>
       </c>
       <c r="C28" t="n">
-        <v>207.2152219065056</v>
+        <v>127.1642390429166</v>
       </c>
       <c r="D28" t="n">
-        <v>207.2152219065056</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="E28" t="n">
-        <v>207.2152219065056</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="F28" t="n">
-        <v>207.2152219065056</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="G28" t="n">
-        <v>207.2152219065056</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="H28" t="n">
-        <v>207.2152219065056</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="I28" t="n">
-        <v>82.79033151174234</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="J28" t="n">
         <v>21.08392072363111</v>
       </c>
       <c r="K28" t="n">
-        <v>30.98425891808531</v>
+        <v>30.98425891808532</v>
       </c>
       <c r="L28" t="n">
-        <v>90.24551902787651</v>
+        <v>90.24551902787653</v>
       </c>
       <c r="M28" t="n">
         <v>161.3806923221769</v>
       </c>
       <c r="N28" t="n">
-        <v>237.0186780796914</v>
+        <v>237.0186780796915</v>
       </c>
       <c r="O28" t="n">
         <v>293.305089816669</v>
@@ -6420,16 +6420,16 @@
         <v>322.5579985909918</v>
       </c>
       <c r="V28" t="n">
-        <v>207.2152219065056</v>
+        <v>322.5579985909918</v>
       </c>
       <c r="W28" t="n">
-        <v>207.2152219065056</v>
+        <v>322.5579985909918</v>
       </c>
       <c r="X28" t="n">
-        <v>207.2152219065056</v>
+        <v>127.1642390429166</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.2152219065056</v>
+        <v>127.1642390429166</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.3011582785323</v>
+        <v>669.1977598683271</v>
       </c>
       <c r="C29" t="n">
-        <v>467.3011582785323</v>
+        <v>402.9866396204596</v>
       </c>
       <c r="D29" t="n">
-        <v>467.3011582785323</v>
+        <v>402.9866396204596</v>
       </c>
       <c r="E29" t="n">
-        <v>467.3011582785323</v>
+        <v>402.9866396204596</v>
       </c>
       <c r="F29" t="n">
-        <v>467.3011582785323</v>
+        <v>402.9866396204596</v>
       </c>
       <c r="G29" t="n">
-        <v>467.3011582785323</v>
+        <v>136.7755193725922</v>
       </c>
       <c r="H29" t="n">
-        <v>201.0900380306647</v>
+        <v>136.7755193725922</v>
       </c>
       <c r="I29" t="n">
         <v>21.08392072363111</v>
@@ -6466,49 +6466,49 @@
         <v>41.20125936464294</v>
       </c>
       <c r="K29" t="n">
-        <v>144.2162652755653</v>
+        <v>176.1634003776435</v>
       </c>
       <c r="L29" t="n">
-        <v>356.2392519623023</v>
+        <v>356.2392519623021</v>
       </c>
       <c r="M29" t="n">
-        <v>573.2148792252065</v>
+        <v>587.4301656599379</v>
       </c>
       <c r="N29" t="n">
-        <v>793.2846878671776</v>
+        <v>793.2846878671771</v>
       </c>
       <c r="O29" t="n">
-        <v>942.4796380098256</v>
+        <v>942.4796380098252</v>
       </c>
       <c r="P29" t="n">
-        <v>1032.139693301877</v>
+        <v>1032.139693301876</v>
       </c>
       <c r="Q29" t="n">
         <v>1054.196036181555</v>
       </c>
       <c r="R29" t="n">
-        <v>1054.196036181555</v>
+        <v>935.4088801161946</v>
       </c>
       <c r="S29" t="n">
-        <v>1054.196036181555</v>
+        <v>935.4088801161946</v>
       </c>
       <c r="T29" t="n">
-        <v>1054.196036181555</v>
+        <v>935.4088801161946</v>
       </c>
       <c r="U29" t="n">
-        <v>1054.196036181555</v>
+        <v>935.4088801161946</v>
       </c>
       <c r="V29" t="n">
-        <v>1054.196036181555</v>
+        <v>935.4088801161946</v>
       </c>
       <c r="W29" t="n">
-        <v>999.7233987742673</v>
+        <v>669.1977598683271</v>
       </c>
       <c r="X29" t="n">
-        <v>733.5122785263998</v>
+        <v>669.1977598683271</v>
       </c>
       <c r="Y29" t="n">
-        <v>733.5122785263998</v>
+        <v>669.1977598683271</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.9922990335521</v>
+        <v>301.2614108952841</v>
       </c>
       <c r="C30" t="n">
-        <v>207.9922990335521</v>
+        <v>301.2614108952841</v>
       </c>
       <c r="D30" t="n">
-        <v>207.9922990335521</v>
+        <v>184.922792583975</v>
       </c>
       <c r="E30" t="n">
-        <v>207.9922990335521</v>
+        <v>184.922792583975</v>
       </c>
       <c r="F30" t="n">
-        <v>207.9922990335521</v>
+        <v>184.922792583975</v>
       </c>
       <c r="G30" t="n">
-        <v>101.8572649661097</v>
+        <v>78.78775851653255</v>
       </c>
       <c r="H30" t="n">
-        <v>21.08392072363111</v>
+        <v>78.78775851653255</v>
       </c>
       <c r="I30" t="n">
         <v>21.08392072363111</v>
@@ -6548,19 +6548,19 @@
         <v>21.08392072363111</v>
       </c>
       <c r="L30" t="n">
-        <v>214.221025674394</v>
+        <v>31.57754806104288</v>
       </c>
       <c r="M30" t="n">
-        <v>475.134544629329</v>
+        <v>292.4910670159778</v>
       </c>
       <c r="N30" t="n">
-        <v>736.0480635842639</v>
+        <v>553.4045859709126</v>
       </c>
       <c r="O30" t="n">
-        <v>984.8014776682261</v>
+        <v>802.1580000548749</v>
       </c>
       <c r="P30" t="n">
-        <v>984.8014776682261</v>
+        <v>984.8014776682259</v>
       </c>
       <c r="Q30" t="n">
         <v>1054.196036181555</v>
@@ -6572,22 +6572,22 @@
         <v>1054.196036181555</v>
       </c>
       <c r="T30" t="n">
-        <v>884.6052328902636</v>
+        <v>1054.196036181555</v>
       </c>
       <c r="U30" t="n">
-        <v>884.6052328902636</v>
+        <v>858.5682092678863</v>
       </c>
       <c r="V30" t="n">
-        <v>682.0489160084629</v>
+        <v>656.0118923860857</v>
       </c>
       <c r="W30" t="n">
-        <v>460.4073506302034</v>
+        <v>612.1366654210008</v>
       </c>
       <c r="X30" t="n">
-        <v>343.6118447036781</v>
+        <v>436.8809565654101</v>
       </c>
       <c r="Y30" t="n">
-        <v>343.6118447036781</v>
+        <v>436.8809565654101</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.4693017350469</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="C31" t="n">
-        <v>100.4693017350469</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="D31" t="n">
-        <v>100.4693017350469</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="E31" t="n">
         <v>21.08392072363111</v>
@@ -6624,16 +6624,16 @@
         <v>21.08392072363111</v>
       </c>
       <c r="K31" t="n">
-        <v>30.98425891808531</v>
+        <v>30.98425891808532</v>
       </c>
       <c r="L31" t="n">
-        <v>90.24551902787651</v>
+        <v>90.24551902787653</v>
       </c>
       <c r="M31" t="n">
         <v>161.3806923221769</v>
       </c>
       <c r="N31" t="n">
-        <v>237.0186780796914</v>
+        <v>237.0186780796915</v>
       </c>
       <c r="O31" t="n">
         <v>293.305089816669</v>
@@ -6648,25 +6648,25 @@
         <v>322.5579985909918</v>
       </c>
       <c r="S31" t="n">
-        <v>322.5579985909918</v>
+        <v>218.7361995032663</v>
       </c>
       <c r="T31" t="n">
-        <v>322.5579985909918</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="U31" t="n">
-        <v>322.5579985909918</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="V31" t="n">
-        <v>100.4693017350469</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="W31" t="n">
-        <v>100.4693017350469</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="X31" t="n">
-        <v>100.4693017350469</v>
+        <v>21.08392072363111</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.4693017350469</v>
+        <v>21.08392072363111</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>265.6799283260342</v>
+        <v>712.4626121869946</v>
       </c>
       <c r="C32" t="n">
-        <v>265.6799283260342</v>
+        <v>712.4626121869946</v>
       </c>
       <c r="D32" t="n">
-        <v>265.6799283260342</v>
+        <v>435.7126868473758</v>
       </c>
       <c r="E32" t="n">
-        <v>265.6799283260342</v>
+        <v>435.7126868473758</v>
       </c>
       <c r="F32" t="n">
-        <v>265.6799283260342</v>
+        <v>158.9627615077569</v>
       </c>
       <c r="G32" t="n">
-        <v>21.91859408689782</v>
+        <v>158.9627615077569</v>
       </c>
       <c r="H32" t="n">
-        <v>21.91859408689782</v>
+        <v>158.9627615077569</v>
       </c>
       <c r="I32" t="n">
         <v>21.91859408689782</v>
       </c>
       <c r="J32" t="n">
-        <v>21.91859408689782</v>
+        <v>53.86572918897605</v>
       </c>
       <c r="K32" t="n">
-        <v>124.9335999978202</v>
+        <v>156.8807350998984</v>
       </c>
       <c r="L32" t="n">
-        <v>348.7863831456234</v>
+        <v>380.7335182477016</v>
       </c>
       <c r="M32" t="n">
-        <v>565.7620104085275</v>
+        <v>641.4860770737504</v>
       </c>
       <c r="N32" t="n">
-        <v>771.6165326157668</v>
+        <v>847.3405992809896</v>
       </c>
       <c r="O32" t="n">
-        <v>964.5884143215599</v>
+        <v>996.5355494236377</v>
       </c>
       <c r="P32" t="n">
-        <v>1095.929704344891</v>
+        <v>1086.195604715689</v>
       </c>
       <c r="Q32" t="n">
         <v>1095.929704344891</v>
       </c>
       <c r="R32" t="n">
-        <v>1095.929704344891</v>
+        <v>989.2125375266135</v>
       </c>
       <c r="S32" t="n">
-        <v>1095.929704344891</v>
+        <v>989.2125375266135</v>
       </c>
       <c r="T32" t="n">
-        <v>1095.929704344891</v>
+        <v>989.2125375266135</v>
       </c>
       <c r="U32" t="n">
-        <v>1095.929704344891</v>
+        <v>989.2125375266135</v>
       </c>
       <c r="V32" t="n">
-        <v>1095.929704344891</v>
+        <v>712.4626121869946</v>
       </c>
       <c r="W32" t="n">
-        <v>819.1797790052721</v>
+        <v>712.4626121869946</v>
       </c>
       <c r="X32" t="n">
-        <v>542.4298536656531</v>
+        <v>712.4626121869946</v>
       </c>
       <c r="Y32" t="n">
-        <v>265.6799283260342</v>
+        <v>712.4626121869946</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>357.8432492113149</v>
+        <v>151.7058427709994</v>
       </c>
       <c r="C33" t="n">
-        <v>228.0560005272133</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="D33" t="n">
-        <v>123.7873714629874</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="E33" t="n">
-        <v>123.7873714629874</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="F33" t="n">
         <v>21.91859408689782</v>
@@ -6782,19 +6782,19 @@
         <v>21.91859408689782</v>
       </c>
       <c r="K33" t="n">
-        <v>21.91859408689782</v>
+        <v>147.2761541447352</v>
       </c>
       <c r="L33" t="n">
-        <v>251.881699955247</v>
+        <v>377.2392600130844</v>
       </c>
       <c r="M33" t="n">
-        <v>523.1243017806075</v>
+        <v>648.4818618384448</v>
       </c>
       <c r="N33" t="n">
-        <v>794.366903605968</v>
+        <v>664.5328126475777</v>
       </c>
       <c r="O33" t="n">
-        <v>1043.12031768993</v>
+        <v>913.28622673154</v>
       </c>
       <c r="P33" t="n">
         <v>1095.929704344891</v>
@@ -6803,28 +6803,28 @@
         <v>1095.929704344891</v>
       </c>
       <c r="R33" t="n">
-        <v>1095.929704344891</v>
+        <v>1039.425955494802</v>
       </c>
       <c r="S33" t="n">
-        <v>967.1781403925852</v>
+        <v>910.6743915424962</v>
       </c>
       <c r="T33" t="n">
-        <v>809.6573263483767</v>
+        <v>910.6743915424962</v>
       </c>
       <c r="U33" t="n">
-        <v>809.6573263483767</v>
+        <v>838.4990225684428</v>
       </c>
       <c r="V33" t="n">
-        <v>644.4873238022859</v>
+        <v>648.0126949337255</v>
       </c>
       <c r="W33" t="n">
-        <v>644.4873238022859</v>
+        <v>438.4411188025493</v>
       </c>
       <c r="X33" t="n">
-        <v>644.4873238022859</v>
+        <v>275.255399194042</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.3928056343574</v>
+        <v>275.255399194042</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>134.2734952345778</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="C34" t="n">
-        <v>134.2734952345778</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="D34" t="n">
-        <v>134.2734952345778</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="E34" t="n">
-        <v>134.2734952345778</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="F34" t="n">
-        <v>134.2734952345778</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="G34" t="n">
-        <v>134.2734952345778</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="H34" t="n">
-        <v>134.2734952345778</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="I34" t="n">
         <v>21.91859408689782</v>
@@ -6870,40 +6870,40 @@
         <v>197.7047550686428</v>
       </c>
       <c r="N34" t="n">
-        <v>285.1725372872237</v>
+        <v>285.1725372872238</v>
       </c>
       <c r="O34" t="n">
-        <v>353.2887454852676</v>
+        <v>353.2887454852677</v>
       </c>
       <c r="P34" t="n">
-        <v>394.3714507206568</v>
+        <v>394.3714507206569</v>
       </c>
       <c r="Q34" t="n">
-        <v>352.0048643967788</v>
+        <v>394.3714507206569</v>
       </c>
       <c r="R34" t="n">
-        <v>352.0048643967788</v>
+        <v>394.3714507206569</v>
       </c>
       <c r="S34" t="n">
-        <v>352.0048643967788</v>
+        <v>394.3714507206569</v>
       </c>
       <c r="T34" t="n">
-        <v>352.0048643967788</v>
+        <v>394.3714507206569</v>
       </c>
       <c r="U34" t="n">
-        <v>352.0048643967788</v>
+        <v>149.8260905535501</v>
       </c>
       <c r="V34" t="n">
-        <v>310.4002937810824</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="W34" t="n">
-        <v>310.4002937810824</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="X34" t="n">
-        <v>310.4002937810824</v>
+        <v>21.91859408689782</v>
       </c>
       <c r="Y34" t="n">
-        <v>134.2734952345778</v>
+        <v>21.91859408689782</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
         <v>262.7299197543128</v>
@@ -6925,7 +6925,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>857.3399886923589</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>857.3399886923589</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>676.6564262953123</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>467.4377090056341</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>467.4377090056341</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>467.4377090056341</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>467.4377090056341</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>467.4377090056341</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>272.0619681839295</v>
+        <v>54.1611763017213</v>
       </c>
       <c r="C36" t="n">
-        <v>142.2747194998279</v>
+        <v>54.1611763017213</v>
       </c>
       <c r="D36" t="n">
-        <v>142.2747194998279</v>
+        <v>54.1611763017213</v>
       </c>
       <c r="E36" t="n">
-        <v>27.7030450913978</v>
+        <v>54.1611763017213</v>
       </c>
       <c r="F36" t="n">
-        <v>27.7030450913978</v>
+        <v>54.1611763017213</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>835.3055915583304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>835.3055915583304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>835.3055915583304</v>
+        <v>780.4993178440507</v>
       </c>
       <c r="V36" t="n">
-        <v>644.8192639236131</v>
+        <v>590.0129902093333</v>
       </c>
       <c r="W36" t="n">
-        <v>435.2476877924369</v>
+        <v>380.4414140781572</v>
       </c>
       <c r="X36" t="n">
-        <v>272.0619681839295</v>
+        <v>217.2556944696498</v>
       </c>
       <c r="Y36" t="n">
-        <v>272.0619681839295</v>
+        <v>54.1611763017213</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>787.9303569641315</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>694.8516118622448</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>694.8516118622448</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>591.6042988768771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>591.6042988768771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>591.6042988768771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>591.6042988768771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>591.6042988768771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>591.6042988768771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>613.3344335323977</v>
+        <v>41.01127776573333</v>
       </c>
       <c r="L37" t="n">
-        <v>684.4254901032554</v>
+        <v>112.1023343365909</v>
       </c>
       <c r="M37" t="n">
-        <v>767.3904598586222</v>
+        <v>195.0673040919577</v>
       </c>
       <c r="N37" t="n">
-        <v>854.8582420772032</v>
+        <v>282.5350863105386</v>
       </c>
       <c r="O37" t="n">
-        <v>922.974450275247</v>
+        <v>350.6512945085826</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>391.7339997439718</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>391.7339997439718</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>391.7339997439718</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>210.1203883844596</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>210.1203883844596</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>210.1203883844596</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>787.9303569641315</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>448.6134171633113</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>262.7299197543128</v>
@@ -7165,7 +7165,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>836.8141865895001</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>649.8227816632168</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>448.6134171633113</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>448.6134171633113</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>448.6134171633113</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>448.6134171633113</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>448.6134171633113</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>448.6134171633113</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>375.9921006440909</v>
+        <v>289.2607977803616</v>
       </c>
       <c r="C39" t="n">
-        <v>375.9921006440909</v>
+        <v>289.2607977803616</v>
       </c>
       <c r="D39" t="n">
-        <v>375.9921006440909</v>
+        <v>289.2607977803616</v>
       </c>
       <c r="E39" t="n">
-        <v>375.9921006440909</v>
+        <v>289.2607977803616</v>
       </c>
       <c r="F39" t="n">
-        <v>253.5975211651426</v>
+        <v>289.2607977803616</v>
       </c>
       <c r="G39" t="n">
-        <v>139.0066742419249</v>
+        <v>174.6699508571437</v>
       </c>
       <c r="H39" t="n">
-        <v>49.77751714367091</v>
+        <v>85.44079375888964</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>887.0276045576886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>737.7502385025242</v>
+        <v>913.9906260227601</v>
       </c>
       <c r="T39" t="n">
-        <v>559.703622355457</v>
+        <v>913.9906260227601</v>
       </c>
       <c r="U39" t="n">
-        <v>559.703622355457</v>
+        <v>913.9906260227601</v>
       </c>
       <c r="V39" t="n">
-        <v>559.703622355457</v>
+        <v>702.978496285184</v>
       </c>
       <c r="W39" t="n">
-        <v>559.703622355457</v>
+        <v>472.8811180511489</v>
       </c>
       <c r="X39" t="n">
-        <v>375.9921006440909</v>
+        <v>472.8811180511489</v>
       </c>
       <c r="Y39" t="n">
-        <v>375.9921006440909</v>
+        <v>289.2607977803616</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>760.2075831067856</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>760.2075831067856</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>760.2075831067856</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>760.2075831067856</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>760.2075831067856</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>760.2075831067856</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>712.3083307229482</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>712.3083307229482</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>712.3083307229482</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>713.921126737457</v>
+        <v>20.89393912472138</v>
       </c>
       <c r="L40" t="n">
-        <v>764.8948446673028</v>
+        <v>71.86765705456705</v>
       </c>
       <c r="M40" t="n">
-        <v>827.7424757816577</v>
+        <v>134.7152881689219</v>
       </c>
       <c r="N40" t="n">
-        <v>895.0929193592268</v>
+        <v>202.0657317464909</v>
       </c>
       <c r="O40" t="n">
-        <v>943.0917889162589</v>
+        <v>250.0646013035229</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>271.0299678979001</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>271.0299678979001</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>271.0299678979001</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>760.2075831067856</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.2075831067856</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>824.7441973424169</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>625.6828031690504</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>625.6828031690504</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>625.6828031690504</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>382.2340265249504</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>382.2340265249504</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>382.2340265249504</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2340265249504</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>528.873160110255</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="C42" t="n">
-        <v>528.873160110255</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="D42" t="n">
-        <v>528.873160110255</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="E42" t="n">
-        <v>381.7056943518829</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="F42" t="n">
-        <v>247.2411256258512</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="G42" t="n">
-        <v>120.58028945555</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7493,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>802.7098002083884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>724.5634696281255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>724.5634696281255</v>
+        <v>758.5417804302</v>
       </c>
       <c r="V42" t="n">
-        <v>724.5634696281255</v>
+        <v>535.4596614455406</v>
       </c>
       <c r="W42" t="n">
-        <v>724.5634696281255</v>
+        <v>293.2922939644224</v>
       </c>
       <c r="X42" t="n">
-        <v>724.5634696281255</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="Y42" t="n">
-        <v>528.873160110255</v>
+        <v>97.5107830059729</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>210.26818957806</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>101.5133560011827</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>101.5133560011827</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>101.5133560011827</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>101.5133560011827</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>101.5133560011827</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>101.5133560011827</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>101.5133560011827</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
         <v>19.28114311021272</v>
@@ -7590,31 +7590,31 @@
         <v>210.26818957806</v>
       </c>
       <c r="Q43" t="n">
-        <v>210.26818957806</v>
+        <v>135.3058119042399</v>
       </c>
       <c r="R43" t="n">
-        <v>210.26818957806</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>210.26818957806</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>210.26818957806</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>210.26818957806</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>210.26818957806</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>210.26818957806</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>210.26818957806</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>210.26818957806</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>551.7164075902811</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>551.7164075902811</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>551.7164075902811</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>551.7164075902811</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>308.267630946181</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>64.81885430208092</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>64.81885430208092</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>961.2725587850217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>961.2725587850217</v>
+        <v>764.9957613372698</v>
       </c>
       <c r="T44" t="n">
-        <v>747.993205038033</v>
+        <v>551.7164075902811</v>
       </c>
       <c r="U44" t="n">
-        <v>506.1786963984129</v>
+        <v>551.7164075902811</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>551.7164075902811</v>
       </c>
       <c r="W44" t="n">
-        <v>262.7299197543128</v>
+        <v>551.7164075902811</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>551.7164075902811</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>551.7164075902811</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>802.7098002083884</v>
       </c>
       <c r="T45" t="n">
-        <v>773.9405501164856</v>
+        <v>802.7098002083884</v>
       </c>
       <c r="U45" t="n">
-        <v>557.786921099958</v>
+        <v>586.5561711918608</v>
       </c>
       <c r="V45" t="n">
-        <v>557.786921099958</v>
+        <v>586.5561711918608</v>
       </c>
       <c r="W45" t="n">
-        <v>315.6195536188397</v>
+        <v>488.9826034822929</v>
       </c>
       <c r="X45" t="n">
-        <v>315.6195536188397</v>
+        <v>293.2010925238434</v>
       </c>
       <c r="Y45" t="n">
-        <v>119.9292441009692</v>
+        <v>97.5107830059729</v>
       </c>
     </row>
     <row r="46">
@@ -7788,19 +7788,19 @@
         <v>210.26818957806</v>
       </c>
       <c r="D46" t="n">
-        <v>210.26818957806</v>
+        <v>72.22153941280763</v>
       </c>
       <c r="E46" t="n">
-        <v>210.26818957806</v>
+        <v>72.22153941280763</v>
       </c>
       <c r="F46" t="n">
-        <v>210.26818957806</v>
+        <v>72.22153941280763</v>
       </c>
       <c r="G46" t="n">
-        <v>210.26818957806</v>
+        <v>72.22153941280763</v>
       </c>
       <c r="H46" t="n">
-        <v>164.2318356078347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8786,10 +8786,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8835549304717</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>405.6830429674071</v>
+        <v>405.6830429674072</v>
       </c>
       <c r="N24" t="n">
-        <v>297.8466559723458</v>
+        <v>231.0689423656681</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>289.6588685023307</v>
+        <v>405.6830429674072</v>
       </c>
       <c r="N27" t="n">
-        <v>394.8907211287221</v>
+        <v>367.9421696221739</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,10 +10196,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>333.6423645786246</v>
+        <v>149.1540033530174</v>
       </c>
       <c r="M30" t="n">
-        <v>405.6830429674072</v>
+        <v>405.6830429674071</v>
       </c>
       <c r="N30" t="n">
         <v>394.8907211287221</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>416.1164600082411</v>
+        <v>416.116460008241</v>
       </c>
       <c r="N33" t="n">
-        <v>405.324138169556</v>
+        <v>147.55479370872</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>187.3172222173208</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -11156,10 +11156,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,7 +23260,7 @@
         <v>370.7845523088681</v>
       </c>
       <c r="C11" t="n">
-        <v>353.323602416395</v>
+        <v>112.309313538736</v>
       </c>
       <c r="D11" t="n">
         <v>342.7337522660704</v>
@@ -23272,13 +23272,13 @@
         <v>394.9267563870989</v>
       </c>
       <c r="G11" t="n">
-        <v>403.3534481605225</v>
+        <v>162.3391592828635</v>
       </c>
       <c r="H11" t="n">
         <v>327.5255127611546</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5266002157934</v>
+        <v>80.2175345128622</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>211.1465602095188</v>
       </c>
       <c r="U11" t="n">
-        <v>121.0872978502928</v>
+        <v>239.396363553224</v>
       </c>
       <c r="V11" t="n">
         <v>315.8029691155224</v>
       </c>
       <c r="W11" t="n">
-        <v>96.27739048514144</v>
+        <v>337.2916793628005</v>
       </c>
       <c r="X11" t="n">
-        <v>116.7675224461975</v>
+        <v>357.7818113238565</v>
       </c>
       <c r="Y11" t="n">
         <v>374.2886493014411</v>
@@ -23357,7 +23357,7 @@
         <v>100.2861548818839</v>
       </c>
       <c r="I12" t="n">
-        <v>77.44734349680256</v>
+        <v>10.44158197055732</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>88.20854479803062</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.7338817492253</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>188.2154393402091</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.8512977948128</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>239.7456938063071</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>193.823695848865</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.17026381093433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.8826908273248</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>155.2975317440153</v>
@@ -23433,7 +23433,7 @@
         <v>156.0416900038462</v>
       </c>
       <c r="H13" t="n">
-        <v>150.2778831528271</v>
+        <v>129.083397976983</v>
       </c>
       <c r="I13" t="n">
         <v>143.5011855726458</v>
@@ -23442,7 +23442,7 @@
         <v>81.40989076206026</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>10.32020247127033</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>74.21275389708187</v>
       </c>
       <c r="R13" t="n">
-        <v>60.79988238774038</v>
+        <v>165.344102022557</v>
       </c>
       <c r="S13" t="n">
         <v>212.0673086823597</v>
@@ -23506,7 +23506,7 @@
         <v>369.9810807176493</v>
       </c>
       <c r="F14" t="n">
-        <v>182.6413707436568</v>
+        <v>394.9267563870989</v>
       </c>
       <c r="G14" t="n">
         <v>403.3534481605225</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>137.9198285865372</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>197.0707802316328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1465602095188</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>239.396363553224</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>315.8029691155224</v>
+        <v>166.0082494200159</v>
       </c>
       <c r="W14" t="n">
-        <v>96.27739048514144</v>
+        <v>337.2916793628005</v>
       </c>
       <c r="X14" t="n">
-        <v>116.7675224461975</v>
+        <v>357.7818113238565</v>
       </c>
       <c r="Y14" t="n">
-        <v>133.274360423782</v>
+        <v>374.2886493014411</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>154.5838942952548</v>
       </c>
       <c r="C15" t="n">
-        <v>108.1205037300438</v>
+        <v>160.7592096337032</v>
       </c>
       <c r="D15" t="n">
         <v>135.4957762100262</v>
@@ -23585,16 +23585,16 @@
         <v>145.6957911007884</v>
       </c>
       <c r="F15" t="n">
-        <v>133.1199230387714</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>125.3942278085981</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.2861548818839</v>
       </c>
       <c r="I15" t="n">
-        <v>77.44734349680256</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>213.9920927263623</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.8512977948128</v>
       </c>
       <c r="W15" t="n">
         <v>239.7456938063071</v>
       </c>
       <c r="X15" t="n">
-        <v>193.823695848865</v>
+        <v>98.95398241817654</v>
       </c>
       <c r="Y15" t="n">
-        <v>193.7334064226918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.8826908273248</v>
+        <v>122.3067003968017</v>
       </c>
       <c r="C16" t="n">
         <v>155.2975317440153</v>
@@ -23673,13 +23673,13 @@
         <v>150.2778831528271</v>
       </c>
       <c r="I16" t="n">
-        <v>143.5011855726458</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>81.40989076206026</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>10.32020247127033</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>74.21275389708187</v>
       </c>
       <c r="R16" t="n">
-        <v>60.79988238774038</v>
+        <v>165.344102022557</v>
       </c>
       <c r="S16" t="n">
         <v>212.0673086823597</v>
@@ -23737,13 +23737,13 @@
         <v>353.323602416395</v>
       </c>
       <c r="D17" t="n">
-        <v>342.7337522660704</v>
+        <v>101.7194633884114</v>
       </c>
       <c r="E17" t="n">
         <v>369.9810807176493</v>
       </c>
       <c r="F17" t="n">
-        <v>394.9267563870989</v>
+        <v>246.7499620160275</v>
       </c>
       <c r="G17" t="n">
         <v>403.3534481605225</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>137.9198285865372</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>239.396363553224</v>
       </c>
       <c r="V17" t="n">
-        <v>74.78868023786333</v>
+        <v>315.8029691155224</v>
       </c>
       <c r="W17" t="n">
-        <v>290.5914199584159</v>
+        <v>337.2916793628005</v>
       </c>
       <c r="X17" t="n">
         <v>357.7818113238565</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>154.5838942952548</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.7592096337032</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>135.4957762100262</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.6957911007884</v>
       </c>
       <c r="F18" t="n">
-        <v>133.1199230387714</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>125.3942278085981</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100.2861548818839</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>88.20854479803062</v>
       </c>
       <c r="S18" t="n">
-        <v>159.7338817492253</v>
+        <v>62.27569208624398</v>
       </c>
       <c r="T18" t="n">
         <v>188.2154393402091</v>
@@ -23873,13 +23873,13 @@
         <v>220.8512977948128</v>
       </c>
       <c r="W18" t="n">
-        <v>239.7456938063071</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>193.823695848865</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>32.67332376473175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>167.8826908273248</v>
       </c>
       <c r="C19" t="n">
-        <v>155.2975317440153</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>136.6661836635998</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>74.21275389708187</v>
       </c>
       <c r="R19" t="n">
         <v>165.344102022557</v>
       </c>
       <c r="S19" t="n">
-        <v>97.2028865762728</v>
+        <v>212.0673086823597</v>
       </c>
       <c r="T19" t="n">
         <v>215.996300073669</v>
       </c>
       <c r="U19" t="n">
-        <v>274.3697400018784</v>
+        <v>240.5900957427249</v>
       </c>
       <c r="V19" t="n">
         <v>240.1883539692155</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>129.770263431209</v>
+        <v>370.7845523088681</v>
       </c>
       <c r="C20" t="n">
-        <v>112.309313538736</v>
+        <v>353.323602416395</v>
       </c>
       <c r="D20" t="n">
-        <v>130.4483666226283</v>
+        <v>342.7337522660704</v>
       </c>
       <c r="E20" t="n">
-        <v>369.9810807176493</v>
+        <v>128.9667918399902</v>
       </c>
       <c r="F20" t="n">
-        <v>394.9267563870989</v>
+        <v>153.9124675094399</v>
       </c>
       <c r="G20" t="n">
-        <v>403.3534481605225</v>
+        <v>162.3391592828635</v>
       </c>
       <c r="H20" t="n">
         <v>327.5255127611546</v>
@@ -24028,7 +24028,7 @@
         <v>239.396363553224</v>
       </c>
       <c r="V20" t="n">
-        <v>74.78868023786333</v>
+        <v>315.8029691155224</v>
       </c>
       <c r="W20" t="n">
         <v>337.2916793628005</v>
@@ -24037,7 +24037,7 @@
         <v>357.7818113238565</v>
       </c>
       <c r="Y20" t="n">
-        <v>374.2886493014411</v>
+        <v>162.0032636579991</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>154.5838942952548</v>
       </c>
       <c r="C21" t="n">
-        <v>110.7803201613343</v>
+        <v>160.7592096337032</v>
       </c>
       <c r="D21" t="n">
         <v>135.4957762100262</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.6957911007884</v>
       </c>
       <c r="F21" t="n">
         <v>133.1199230387714</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>35.65560084457637</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.2861548818839</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.20854479803062</v>
       </c>
       <c r="S21" t="n">
-        <v>159.7338817492253</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>188.2154393402091</v>
@@ -24107,13 +24107,13 @@
         <v>213.9920927263623</v>
       </c>
       <c r="V21" t="n">
-        <v>220.8512977948128</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>239.7456938063071</v>
       </c>
       <c r="X21" t="n">
-        <v>193.823695848865</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>74.21275389708187</v>
       </c>
       <c r="R22" t="n">
-        <v>165.344102022557</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.0673086823597</v>
@@ -24183,7 +24183,7 @@
         <v>215.996300073669</v>
       </c>
       <c r="U22" t="n">
-        <v>85.29256399870957</v>
+        <v>274.3697400018784</v>
       </c>
       <c r="V22" t="n">
         <v>240.1883539692155</v>
@@ -24192,7 +24192,7 @@
         <v>274.5737089819785</v>
       </c>
       <c r="X22" t="n">
-        <v>213.7603660344246</v>
+        <v>190.0272920538128</v>
       </c>
       <c r="Y22" t="n">
         <v>206.6353639974823</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>350.4640082270379</v>
+        <v>350.4640082270378</v>
       </c>
       <c r="C23" t="n">
-        <v>333.0030583345649</v>
+        <v>333.0030583345648</v>
       </c>
       <c r="D23" t="n">
-        <v>90.27924101706191</v>
+        <v>322.4132081842402</v>
       </c>
       <c r="E23" t="n">
-        <v>349.6605366358191</v>
+        <v>349.660536635819</v>
       </c>
       <c r="F23" t="n">
-        <v>374.6062123052688</v>
+        <v>374.6062123052687</v>
       </c>
       <c r="G23" t="n">
-        <v>383.0329040786924</v>
+        <v>383.0329040786923</v>
       </c>
       <c r="H23" t="n">
-        <v>307.2049686793245</v>
+        <v>307.2049686793244</v>
       </c>
       <c r="I23" t="n">
-        <v>178.2060561339633</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>117.5992845047071</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>176.7502361498027</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>190.8260161276887</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>219.0758194713939</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>295.4824250336923</v>
+        <v>295.4824250336922</v>
       </c>
       <c r="W23" t="n">
-        <v>53.42212623558157</v>
+        <v>316.9711352809703</v>
       </c>
       <c r="X23" t="n">
-        <v>73.91225819663759</v>
+        <v>337.4612672420263</v>
       </c>
       <c r="Y23" t="n">
-        <v>90.41909617422215</v>
+        <v>213.6445233038206</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23.89791735189181</v>
+        <v>134.2633502134246</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4386655518731</v>
+        <v>140.438665551873</v>
       </c>
       <c r="D24" t="n">
-        <v>115.1752321281961</v>
+        <v>29.64439046325552</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>112.7993789569413</v>
+        <v>112.7993789569411</v>
       </c>
       <c r="G24" t="n">
-        <v>105.073683726768</v>
+        <v>105.0736837267679</v>
       </c>
       <c r="H24" t="n">
-        <v>79.96561080005384</v>
+        <v>79.9656108000537</v>
       </c>
       <c r="I24" t="n">
-        <v>57.12679941497245</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>67.88800071620051</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>139.4133376673952</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>167.894895258379</v>
+        <v>167.8948952583789</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>193.6715486445321</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>219.4251497244769</v>
       </c>
       <c r="X24" t="n">
-        <v>173.5031517670349</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.5621467454947</v>
+        <v>147.5621467454945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>134.9769876621851</v>
       </c>
       <c r="D25" t="n">
-        <v>116.3456395817697</v>
+        <v>116.3456395817696</v>
       </c>
       <c r="E25" t="n">
-        <v>114.1641292101265</v>
+        <v>114.1641292101264</v>
       </c>
       <c r="F25" t="n">
-        <v>113.1512145864886</v>
+        <v>113.1512145864885</v>
       </c>
       <c r="G25" t="n">
-        <v>135.7211459220161</v>
+        <v>135.721145922016</v>
       </c>
       <c r="H25" t="n">
-        <v>129.957339070997</v>
+        <v>129.9573390709968</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18.16112635472236</v>
       </c>
       <c r="J25" t="n">
-        <v>61.08934668023015</v>
+        <v>61.08934668023002</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.89220981525176</v>
+        <v>53.89220981525163</v>
       </c>
       <c r="R25" t="n">
-        <v>145.0235579407268</v>
+        <v>145.0235579407267</v>
       </c>
       <c r="S25" t="n">
-        <v>191.7467646005296</v>
+        <v>191.7467646005295</v>
       </c>
       <c r="T25" t="n">
-        <v>195.6757559918389</v>
+        <v>195.6757559918387</v>
       </c>
       <c r="U25" t="n">
-        <v>254.0491959200482</v>
+        <v>254.0491959200481</v>
       </c>
       <c r="V25" t="n">
-        <v>219.8678098873854</v>
+        <v>219.8678098873852</v>
       </c>
       <c r="W25" t="n">
-        <v>254.2531649001484</v>
+        <v>254.2531649001482</v>
       </c>
       <c r="X25" t="n">
-        <v>153.1381140169086</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.3148199156522</v>
+        <v>186.314819915652</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>350.4640082270379</v>
+        <v>86.91499918164902</v>
       </c>
       <c r="C26" t="n">
         <v>333.0030583345649</v>
@@ -24451,19 +24451,19 @@
         <v>322.4132081842403</v>
       </c>
       <c r="E26" t="n">
-        <v>117.5265694686407</v>
+        <v>86.11152759043023</v>
       </c>
       <c r="F26" t="n">
-        <v>111.05720325988</v>
+        <v>111.0572032598799</v>
       </c>
       <c r="G26" t="n">
-        <v>119.4838950333036</v>
+        <v>383.0329040786924</v>
       </c>
       <c r="H26" t="n">
         <v>307.2049686793245</v>
       </c>
       <c r="I26" t="n">
-        <v>178.2060561339633</v>
+        <v>178.2060561339632</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>190.8260161276887</v>
       </c>
       <c r="U26" t="n">
-        <v>219.0758194713939</v>
+        <v>219.0758194713938</v>
       </c>
       <c r="V26" t="n">
         <v>295.4824250336923</v>
@@ -24511,7 +24511,7 @@
         <v>337.4612672420264</v>
       </c>
       <c r="Y26" t="n">
-        <v>90.41909617422215</v>
+        <v>121.8341380524324</v>
       </c>
     </row>
     <row r="27">
@@ -24524,25 +24524,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>140.4386655518731</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.1752321281961</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>125.3752470189583</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>112.7993789569412</v>
       </c>
       <c r="G27" t="n">
-        <v>105.073683726768</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>79.96561080005381</v>
+        <v>33.64935027169745</v>
       </c>
       <c r="I27" t="n">
-        <v>29.5723793925881</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>67.88800071620048</v>
       </c>
       <c r="S27" t="n">
-        <v>139.4133376673952</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>167.8948952583789</v>
@@ -24584,13 +24584,13 @@
         <v>200.5307537129826</v>
       </c>
       <c r="W27" t="n">
-        <v>219.425149724477</v>
+        <v>219.4251497244769</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>173.4128623408617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.5621467454947</v>
+        <v>147.5621467454946</v>
       </c>
       <c r="C28" t="n">
         <v>134.9769876621852</v>
       </c>
       <c r="D28" t="n">
-        <v>116.3456395817697</v>
+        <v>11.3261244456771</v>
       </c>
       <c r="E28" t="n">
         <v>114.1641292101265</v>
@@ -24621,10 +24621,10 @@
         <v>129.9573390709969</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.1806414908156</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>61.08934668023011</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>191.7467646005296</v>
       </c>
       <c r="T28" t="n">
-        <v>195.6757559918389</v>
+        <v>195.6757559918388</v>
       </c>
       <c r="U28" t="n">
         <v>254.0491959200482</v>
       </c>
       <c r="V28" t="n">
-        <v>105.6784609697441</v>
+        <v>219.8678098873853</v>
       </c>
       <c r="W28" t="n">
-        <v>254.2531649001484</v>
+        <v>254.2531649001483</v>
       </c>
       <c r="X28" t="n">
-        <v>193.4398219525945</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.3148199156522</v>
+        <v>186.3148199156521</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>86.91499918164908</v>
+        <v>350.4640082270379</v>
       </c>
       <c r="C29" t="n">
-        <v>333.0030583345649</v>
+        <v>69.45404928917611</v>
       </c>
       <c r="D29" t="n">
         <v>322.4132081842403</v>
@@ -24694,13 +24694,13 @@
         <v>374.6062123052688</v>
       </c>
       <c r="G29" t="n">
-        <v>383.0329040786924</v>
+        <v>119.4838950333036</v>
       </c>
       <c r="H29" t="n">
-        <v>43.65595963393565</v>
+        <v>307.2049686793245</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>63.67137347149182</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>117.599284504707</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>176.7502361498027</v>
@@ -24736,16 +24736,16 @@
         <v>190.8260161276887</v>
       </c>
       <c r="U29" t="n">
-        <v>219.0758194713939</v>
+        <v>219.0758194713938</v>
       </c>
       <c r="V29" t="n">
         <v>295.4824250336923</v>
       </c>
       <c r="W29" t="n">
-        <v>263.0432242477551</v>
+        <v>53.42212623558157</v>
       </c>
       <c r="X29" t="n">
-        <v>73.91225819663754</v>
+        <v>337.4612672420264</v>
       </c>
       <c r="Y29" t="n">
         <v>353.9681052196109</v>
@@ -24764,7 +24764,7 @@
         <v>140.4386655518731</v>
       </c>
       <c r="D30" t="n">
-        <v>115.1752321281961</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>125.3752470189583</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>79.96561080005381</v>
       </c>
       <c r="I30" t="n">
-        <v>57.12679941497242</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>139.4133376673952</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>167.8948952583789</v>
       </c>
       <c r="U30" t="n">
-        <v>193.6715486445322</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>175.9886750290428</v>
       </c>
       <c r="X30" t="n">
-        <v>57.8756008997748</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>173.4128623408617</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.5621467454947</v>
+        <v>147.5621467454946</v>
       </c>
       <c r="C31" t="n">
         <v>134.9769876621852</v>
@@ -24846,7 +24846,7 @@
         <v>116.3456395817697</v>
       </c>
       <c r="E31" t="n">
-        <v>35.57260200882484</v>
+        <v>114.1641292101265</v>
       </c>
       <c r="F31" t="n">
         <v>113.1512145864886</v>
@@ -24861,7 +24861,7 @@
         <v>123.1806414908156</v>
       </c>
       <c r="J31" t="n">
-        <v>61.08934668023012</v>
+        <v>61.08934668023011</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>145.0235579407268</v>
       </c>
       <c r="S31" t="n">
-        <v>191.7467646005296</v>
+        <v>88.96318350368134</v>
       </c>
       <c r="T31" t="n">
-        <v>195.6757559918389</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>254.0491959200482</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>219.8678098873853</v>
       </c>
       <c r="W31" t="n">
-        <v>254.2531649001484</v>
+        <v>254.2531649001483</v>
       </c>
       <c r="X31" t="n">
         <v>193.4398219525945</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.3148199156522</v>
+        <v>186.3148199156521</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>321.0537689799524</v>
       </c>
       <c r="D32" t="n">
-        <v>310.4639188296278</v>
+        <v>36.48149274340511</v>
       </c>
       <c r="E32" t="n">
         <v>337.7112472812066</v>
       </c>
       <c r="F32" t="n">
-        <v>362.6569229506563</v>
+        <v>88.67449686443359</v>
       </c>
       <c r="G32" t="n">
-        <v>129.7598938273349</v>
+        <v>371.0836147240799</v>
       </c>
       <c r="H32" t="n">
         <v>295.255679324712</v>
       </c>
       <c r="I32" t="n">
-        <v>166.2567667793508</v>
+        <v>30.58304103270024</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>105.6499951500945</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8009467951902</v>
@@ -24976,16 +24976,16 @@
         <v>207.1265301167813</v>
       </c>
       <c r="V32" t="n">
-        <v>283.5331356790797</v>
+        <v>9.550709592857061</v>
       </c>
       <c r="W32" t="n">
-        <v>31.03941984013511</v>
+        <v>305.0218459263579</v>
       </c>
       <c r="X32" t="n">
-        <v>51.52955180119113</v>
+        <v>325.5119778874139</v>
       </c>
       <c r="Y32" t="n">
-        <v>68.03638977877569</v>
+        <v>342.0188158649984</v>
       </c>
     </row>
     <row r="33">
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>103.2259427735836</v>
       </c>
       <c r="E33" t="n">
         <v>113.4259576643458</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>100.8500896023287</v>
       </c>
       <c r="G33" t="n">
-        <v>93.12439437215546</v>
+        <v>93.12439437215545</v>
       </c>
       <c r="H33" t="n">
         <v>68.01632144544129</v>
       </c>
       <c r="I33" t="n">
-        <v>45.17751006035991</v>
+        <v>45.1775100603599</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>55.93871136158796</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>155.9456059037664</v>
       </c>
       <c r="U33" t="n">
-        <v>181.7222592899196</v>
+        <v>110.2686440056068</v>
       </c>
       <c r="V33" t="n">
-        <v>25.06316183774021</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>207.4758603698644</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>161.5538624124223</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>161.4635729862492</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>135.6128573908821</v>
       </c>
       <c r="C34" t="n">
-        <v>123.0276983075727</v>
+        <v>123.0276983075726</v>
       </c>
       <c r="D34" t="n">
         <v>104.3963502271572</v>
@@ -25095,7 +25095,7 @@
         <v>118.0080497163844</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>111.2313521362031</v>
       </c>
       <c r="J34" t="n">
         <v>49.1400573256176</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>41.94292046063921</v>
       </c>
       <c r="R34" t="n">
         <v>133.0742685861143</v>
@@ -25131,10 +25131,10 @@
         <v>183.7264666372263</v>
       </c>
       <c r="U34" t="n">
-        <v>242.0999065654357</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>166.7299956232335</v>
+        <v>81.29009903078703</v>
       </c>
       <c r="W34" t="n">
         <v>242.3038755455358</v>
@@ -25143,7 +25143,7 @@
         <v>181.490532597982</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>174.3655305610396</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.50042999476636</v>
+        <v>135.8540075136173</v>
       </c>
       <c r="C35" t="n">
-        <v>80.03948010229334</v>
+        <v>321.0537689799524</v>
       </c>
       <c r="D35" t="n">
         <v>310.4639188296278</v>
@@ -25165,16 +25165,16 @@
         <v>337.7112472812066</v>
       </c>
       <c r="F35" t="n">
-        <v>362.6569229506563</v>
+        <v>121.6426340729972</v>
       </c>
       <c r="G35" t="n">
-        <v>130.0693258464208</v>
+        <v>371.0836147240799</v>
       </c>
       <c r="H35" t="n">
         <v>295.255679324712</v>
       </c>
       <c r="I35" t="n">
-        <v>166.2567667793508</v>
+        <v>166.2567667793507</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>105.6499951500945</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8009467951902</v>
       </c>
       <c r="T35" t="n">
-        <v>178.8767267730762</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>207.1265301167813</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>283.5331356790797</v>
@@ -25219,7 +25219,7 @@
         <v>305.0218459263579</v>
       </c>
       <c r="X35" t="n">
-        <v>113.2265922439719</v>
+        <v>325.5119778874139</v>
       </c>
       <c r="Y35" t="n">
         <v>342.0188158649984</v>
@@ -25235,25 +25235,25 @@
         <v>122.3140608588122</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>128.4893761972606</v>
       </c>
       <c r="D36" t="n">
         <v>103.2259427735836</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>113.4259576643458</v>
       </c>
       <c r="F36" t="n">
         <v>100.8500896023287</v>
       </c>
       <c r="G36" t="n">
-        <v>84.78671141078225</v>
+        <v>58.59316151256196</v>
       </c>
       <c r="H36" t="n">
         <v>68.01632144544129</v>
       </c>
       <c r="I36" t="n">
-        <v>45.17751006035991</v>
+        <v>45.1775100603599</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>55.93871136158796</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>127.4640483127826</v>
       </c>
       <c r="T36" t="n">
         <v>155.9456059037664</v>
       </c>
       <c r="U36" t="n">
-        <v>181.7222592899196</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>161.4635729862492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,13 +25314,13 @@
         <v>135.6128573908821</v>
       </c>
       <c r="C37" t="n">
-        <v>30.8797406567048</v>
+        <v>123.0276983075726</v>
       </c>
       <c r="D37" t="n">
         <v>104.3963502271572</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>102.214839855514</v>
       </c>
       <c r="F37" t="n">
         <v>101.2019252318761</v>
@@ -25362,7 +25362,7 @@
         <v>133.0742685861143</v>
       </c>
       <c r="S37" t="n">
-        <v>179.7974752459171</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>183.7264666372263</v>
@@ -25371,7 +25371,7 @@
         <v>242.0999065654357</v>
       </c>
       <c r="V37" t="n">
-        <v>207.9185205327728</v>
+        <v>18.98766771126844</v>
       </c>
       <c r="W37" t="n">
         <v>242.3038755455358</v>
@@ -25380,7 +25380,7 @@
         <v>181.490532597982</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>174.3655305610396</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>117.8209740765965</v>
+        <v>358.8352629542557</v>
       </c>
       <c r="C38" t="n">
-        <v>341.3743130617825</v>
+        <v>157.3496506268741</v>
       </c>
       <c r="D38" t="n">
-        <v>330.7844629114579</v>
+        <v>330.784462911458</v>
       </c>
       <c r="E38" t="n">
-        <v>145.7464057195946</v>
+        <v>358.0317913630369</v>
       </c>
       <c r="F38" t="n">
-        <v>382.9774670324864</v>
+        <v>382.9774670324865</v>
       </c>
       <c r="G38" t="n">
-        <v>150.389869928251</v>
+        <v>391.4041588059101</v>
       </c>
       <c r="H38" t="n">
-        <v>315.5762234065421</v>
+        <v>74.56193452888317</v>
       </c>
       <c r="I38" t="n">
-        <v>186.5773108611808</v>
+        <v>186.577310861181</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>125.9705392319246</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.1214908770203</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1972708549063</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>227.4470741986114</v>
+        <v>227.4470741986116</v>
       </c>
       <c r="V38" t="n">
-        <v>303.8536797609098</v>
+        <v>303.85367976091</v>
       </c>
       <c r="W38" t="n">
-        <v>325.342390008188</v>
+        <v>325.3423900081881</v>
       </c>
       <c r="X38" t="n">
-        <v>345.832521969244</v>
+        <v>345.8325219692441</v>
       </c>
       <c r="Y38" t="n">
-        <v>121.3250710691694</v>
+        <v>362.3393599468287</v>
       </c>
     </row>
     <row r="39">
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>142.6346049406423</v>
+        <v>142.6346049406424</v>
       </c>
       <c r="C39" t="n">
-        <v>148.8099202790907</v>
+        <v>148.8099202790908</v>
       </c>
       <c r="D39" t="n">
-        <v>123.5464868554137</v>
+        <v>123.5464868554138</v>
       </c>
       <c r="E39" t="n">
-        <v>133.7465017461759</v>
+        <v>133.746501746176</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>121.1706336841589</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.30664384906642</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>76.2592554434182</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>98.21872820161556</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>176.2661499855967</v>
       </c>
       <c r="U39" t="n">
-        <v>202.0428033717498</v>
+        <v>202.0428033717499</v>
       </c>
       <c r="V39" t="n">
-        <v>208.9020084402002</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>227.7964044516945</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>181.8744064942525</v>
       </c>
       <c r="Y39" t="n">
-        <v>181.7841170680793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.9334014727122</v>
+        <v>155.9334014727124</v>
       </c>
       <c r="C40" t="n">
-        <v>143.3482423894028</v>
+        <v>143.3482423894029</v>
       </c>
       <c r="D40" t="n">
-        <v>124.7168943089873</v>
+        <v>124.7168943089874</v>
       </c>
       <c r="E40" t="n">
-        <v>122.5353839373441</v>
+        <v>122.5353839373442</v>
       </c>
       <c r="F40" t="n">
-        <v>121.5224693137062</v>
+        <v>121.5224693137063</v>
       </c>
       <c r="G40" t="n">
-        <v>144.0924006492337</v>
+        <v>144.0924006492338</v>
       </c>
       <c r="H40" t="n">
-        <v>90.90833393821549</v>
+        <v>138.3285937982146</v>
       </c>
       <c r="I40" t="n">
-        <v>131.5518962180332</v>
+        <v>131.5518962180333</v>
       </c>
       <c r="J40" t="n">
-        <v>69.46060140744771</v>
+        <v>69.46060140744784</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>62.26346454246932</v>
+        <v>62.26346454246945</v>
       </c>
       <c r="R40" t="n">
-        <v>153.3948126679444</v>
+        <v>153.3948126679446</v>
       </c>
       <c r="S40" t="n">
-        <v>200.1180193277472</v>
+        <v>191.9009716655959</v>
       </c>
       <c r="T40" t="n">
-        <v>204.0470107190564</v>
+        <v>204.0470107190566</v>
       </c>
       <c r="U40" t="n">
-        <v>262.4204506472659</v>
+        <v>21.40616176960691</v>
       </c>
       <c r="V40" t="n">
-        <v>228.2390646146029</v>
+        <v>228.2390646146031</v>
       </c>
       <c r="W40" t="n">
-        <v>262.6244196273659</v>
+        <v>262.6244196273661</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>201.8110766798122</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.6860746428697</v>
+        <v>194.6860746428699</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>252.4754866059369</v>
+        <v>370.7845523088681</v>
       </c>
       <c r="C41" t="n">
         <v>353.323602416395</v>
@@ -25636,13 +25636,13 @@
         <v>342.7337522660704</v>
       </c>
       <c r="E41" t="n">
-        <v>369.9810807176493</v>
+        <v>128.9667918399902</v>
       </c>
       <c r="F41" t="n">
         <v>394.9267563870989</v>
       </c>
       <c r="G41" t="n">
-        <v>162.3391592828635</v>
+        <v>191.0680625170804</v>
       </c>
       <c r="H41" t="n">
         <v>327.5255127611546</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>137.9198285865372</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>197.0707802316328</v>
       </c>
       <c r="T41" t="n">
         <v>211.1465602095188</v>
@@ -25696,7 +25696,7 @@
         <v>357.7818113238565</v>
       </c>
       <c r="Y41" t="n">
-        <v>374.2886493014411</v>
+        <v>133.274360423782</v>
       </c>
     </row>
     <row r="42">
@@ -25715,19 +25715,19 @@
         <v>135.4957762100262</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>145.6957911007884</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.1199230387714</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>125.3942278085981</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>100.2861548818839</v>
       </c>
       <c r="I42" t="n">
-        <v>77.44734349680256</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>88.20854479803062</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.7338817492253</v>
       </c>
       <c r="T42" t="n">
-        <v>110.8505720657488</v>
+        <v>188.2154393402091</v>
       </c>
       <c r="U42" t="n">
-        <v>213.9920927263623</v>
+        <v>10.53187139673045</v>
       </c>
       <c r="V42" t="n">
-        <v>220.8512977948128</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>239.7456938063071</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>193.823695848865</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>193.7334064226918</v>
       </c>
     </row>
     <row r="43">
@@ -25788,7 +25788,7 @@
         <v>167.8826908273248</v>
       </c>
       <c r="C43" t="n">
-        <v>47.63024650290679</v>
+        <v>155.2975317440153</v>
       </c>
       <c r="D43" t="n">
         <v>136.6661836635998</v>
@@ -25809,7 +25809,7 @@
         <v>143.5011855726458</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>81.40989076206026</v>
       </c>
       <c r="K43" t="n">
         <v>10.32020247127033</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.21275389708187</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>165.344102022557</v>
+        <v>50.47967991647003</v>
       </c>
       <c r="S43" t="n">
         <v>212.0673086823597</v>
@@ -25873,19 +25873,19 @@
         <v>342.7337522660704</v>
       </c>
       <c r="E44" t="n">
-        <v>128.9667918399902</v>
+        <v>369.9810807176493</v>
       </c>
       <c r="F44" t="n">
-        <v>394.9267563870989</v>
+        <v>153.9124675094399</v>
       </c>
       <c r="G44" t="n">
-        <v>403.3534481605225</v>
+        <v>162.3391592828635</v>
       </c>
       <c r="H44" t="n">
         <v>327.5255127611546</v>
       </c>
       <c r="I44" t="n">
-        <v>198.5266002157934</v>
+        <v>153.4442661358439</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>135.1630778281788</v>
+        <v>137.9198285865372</v>
       </c>
       <c r="S44" t="n">
-        <v>197.0707802316328</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>239.396363553224</v>
       </c>
       <c r="V44" t="n">
-        <v>74.78868023786333</v>
+        <v>315.8029691155224</v>
       </c>
       <c r="W44" t="n">
         <v>337.2916793628005</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.94227431440594</v>
+        <v>154.5838942952548</v>
       </c>
       <c r="C45" t="n">
         <v>160.7592096337032</v>
@@ -25964,7 +25964,7 @@
         <v>100.2861548818839</v>
       </c>
       <c r="I45" t="n">
-        <v>77.44734349680256</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>88.20854479803062</v>
       </c>
       <c r="S45" t="n">
-        <v>159.7338817492253</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>188.2154393402091</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>220.8512977948128</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>143.1478617738349</v>
       </c>
       <c r="X45" t="n">
-        <v>193.823695848865</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>155.2975317440153</v>
       </c>
       <c r="D46" t="n">
-        <v>136.6661836635998</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>134.4846732919567</v>
@@ -26040,10 +26040,10 @@
         <v>156.0416900038462</v>
       </c>
       <c r="H46" t="n">
-        <v>104.701892722304</v>
+        <v>97.8668908132581</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>143.5011855726458</v>
       </c>
       <c r="J46" t="n">
         <v>81.40989076206026</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448549.8820327378</v>
+        <v>448549.8820327375</v>
       </c>
     </row>
     <row r="15">
@@ -26316,16 +26316,16 @@
         <v>675902.9794415566</v>
       </c>
       <c r="C2" t="n">
+        <v>675902.9794415566</v>
+      </c>
+      <c r="D2" t="n">
         <v>675902.9794415567</v>
-      </c>
-      <c r="D2" t="n">
-        <v>675902.979441557</v>
       </c>
       <c r="E2" t="n">
         <v>300530.9933757281</v>
       </c>
       <c r="F2" t="n">
-        <v>300530.993375728</v>
+        <v>300530.9933757282</v>
       </c>
       <c r="G2" t="n">
         <v>300530.9933757281</v>
@@ -26334,25 +26334,25 @@
         <v>300530.9933757281</v>
       </c>
       <c r="I2" t="n">
-        <v>351669.6647593071</v>
+        <v>351669.6647593065</v>
       </c>
       <c r="J2" t="n">
-        <v>351669.6647593066</v>
+        <v>351669.6647593065</v>
       </c>
       <c r="K2" t="n">
-        <v>351669.6647593067</v>
+        <v>351669.6647593064</v>
       </c>
       <c r="L2" t="n">
         <v>380638.1720716979</v>
       </c>
       <c r="M2" t="n">
-        <v>367760.7345983272</v>
+        <v>367760.7345983271</v>
       </c>
       <c r="N2" t="n">
-        <v>325428.248065937</v>
+        <v>325428.2480659367</v>
       </c>
       <c r="O2" t="n">
-        <v>300530.993375728</v>
+        <v>300530.9933757281</v>
       </c>
       <c r="P2" t="n">
         <v>300530.9933757281</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22248.89058718695</v>
+        <v>22248.89058718708</v>
       </c>
       <c r="J3" t="n">
-        <v>9559.431483690038</v>
+        <v>9559.431483689934</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>12200.0354359717</v>
       </c>
       <c r="M3" t="n">
-        <v>51845.93318054525</v>
+        <v>51845.93318054526</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>102113.8594719089</v>
       </c>
       <c r="I4" t="n">
-        <v>136454.4415946944</v>
+        <v>136454.4415946946</v>
       </c>
       <c r="J4" t="n">
         <v>136454.4415946944</v>
@@ -26453,7 +26453,7 @@
         <v>148682.5740144875</v>
       </c>
       <c r="N4" t="n">
-        <v>119357.6886475674</v>
+        <v>119357.6886475672</v>
       </c>
       <c r="O4" t="n">
         <v>102113.8594719089</v>
@@ -26490,7 +26490,7 @@
         <v>15658.23357051459</v>
       </c>
       <c r="I5" t="n">
-        <v>18736.67237712793</v>
+        <v>18736.67237712795</v>
       </c>
       <c r="J5" t="n">
         <v>18736.67237712794</v>
@@ -26505,7 +26505,7 @@
         <v>18371.12619768289</v>
       </c>
       <c r="N5" t="n">
-        <v>16662.79837726751</v>
+        <v>16662.7983772675</v>
       </c>
       <c r="O5" t="n">
         <v>15658.23357051459</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>243629.0916583147</v>
+        <v>243584.9558796335</v>
       </c>
       <c r="C6" t="n">
-        <v>243629.0916583148</v>
+        <v>243584.9558796335</v>
       </c>
       <c r="D6" t="n">
-        <v>243629.091658315</v>
+        <v>243584.9558796337</v>
       </c>
       <c r="E6" t="n">
-        <v>101237.9045051009</v>
+        <v>89818.86005775831</v>
       </c>
       <c r="F6" t="n">
-        <v>182758.9003333046</v>
+        <v>171339.8558859621</v>
       </c>
       <c r="G6" t="n">
-        <v>182758.9003333047</v>
+        <v>171339.855885962</v>
       </c>
       <c r="H6" t="n">
-        <v>182758.9003333046</v>
+        <v>171339.855885962</v>
       </c>
       <c r="I6" t="n">
-        <v>174229.6602002978</v>
+        <v>164360.2724615476</v>
       </c>
       <c r="J6" t="n">
-        <v>186919.1193037942</v>
+        <v>177049.7315650449</v>
       </c>
       <c r="K6" t="n">
-        <v>196478.5507874843</v>
+        <v>186609.1630487347</v>
       </c>
       <c r="L6" t="n">
-        <v>192041.5010410259</v>
+        <v>183049.9468571975</v>
       </c>
       <c r="M6" t="n">
-        <v>148861.1012056116</v>
+        <v>139479.3216438021</v>
       </c>
       <c r="N6" t="n">
-        <v>189407.761041102</v>
+        <v>178743.178857099</v>
       </c>
       <c r="O6" t="n">
-        <v>182758.9003333045</v>
+        <v>171339.855885962</v>
       </c>
       <c r="P6" t="n">
-        <v>182758.9003333047</v>
+        <v>171339.8558859621</v>
       </c>
     </row>
   </sheetData>
@@ -26706,22 +26706,22 @@
         <v>11.94928935461252</v>
       </c>
       <c r="I2" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="J2" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="K2" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="L2" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="M2" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="N2" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="O2" t="n">
         <v>11.94928935461252</v>
@@ -26810,13 +26810,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
+        <v>263.5490090453889</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263.5490090453889</v>
+      </c>
+      <c r="K4" t="n">
         <v>263.5490090453888</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.5490090453888</v>
-      </c>
-      <c r="K4" t="n">
-        <v>263.5490090453889</v>
       </c>
       <c r="L4" t="n">
         <v>273.9824260862227</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20.32054408183011</v>
+        <v>20.32054408183024</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461255</v>
+        <v>11.94928935461242</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22.53472016772974</v>
+        <v>22.53472016772986</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>20.32054408183011</v>
+        <v>20.32054408183024</v>
       </c>
       <c r="O2" t="n">
-        <v>11.94928935461255</v>
+        <v>11.94928935461242</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29037,31 +29037,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="C23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="D23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="E23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="F23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="G23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="H23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="I23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="J23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29070,43 +29070,43 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.368175972052913</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544788</v>
+        <v>14.35887518659779</v>
       </c>
       <c r="R23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="S23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="T23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="U23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="V23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="W23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="X23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="Y23" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
     </row>
     <row r="24">
@@ -29116,28 +29116,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="C24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="D24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="E24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="F24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="G24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="H24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="I24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="S24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="T24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="U24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="V24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="W24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="X24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="Y24" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="C25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="D25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="E25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="F25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="G25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="H25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="I25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="J25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="K25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="L25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="M25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="N25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="O25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="P25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="R25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="S25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="T25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="U25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="V25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="W25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="X25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.26983343644262</v>
+        <v>32.26983343644276</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="C26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="D26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="E26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="F26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="G26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="H26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="I26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="J26" t="n">
+        <v>32.26983343644266</v>
+      </c>
+      <c r="K26" t="n">
+        <v>32.26983343644266</v>
+      </c>
+      <c r="L26" t="n">
         <v>14.35887518659773</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>32.26983343644265</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>32.26983343644265</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="R26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="S26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="T26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="U26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="V26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="W26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="X26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="C27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="D27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="E27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="F27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="G27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="H27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="I27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="S27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="T27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="U27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="V27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="W27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="X27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="Y27" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="C28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="D28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="E28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="F28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="G28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="H28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="I28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="J28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="K28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="L28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="M28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="N28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="O28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="P28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="R28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="S28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="T28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="U28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="W28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="X28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
     </row>
     <row r="29">
@@ -29511,43 +29511,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="C29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="D29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="E29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="F29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="G29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="H29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="I29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="J29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="L29" t="n">
-        <v>32.26983343644265</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>14.35887518659773</v>
       </c>
       <c r="N29" t="n">
-        <v>14.35887518659773</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29556,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="R29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="S29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="T29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="U29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="V29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="W29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="X29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="C30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="D30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="E30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="F30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="G30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="H30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="I30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="S30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="T30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="U30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="V30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="W30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="X30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="Y30" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="C31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="D31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="E31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="F31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="G31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="H31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="I31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="J31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="K31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="L31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="M31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="N31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="O31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="P31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="R31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="S31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="T31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="U31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="W31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="X31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.26983343644265</v>
+        <v>32.26983343644266</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="C32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="D32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="E32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="F32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="G32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="H32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="I32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>44.21912279105517</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.10225730432342</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544788</v>
+        <v>19.82312308242557</v>
       </c>
       <c r="R32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="S32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="T32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="U32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="V32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="W32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="X32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="Y32" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
     </row>
     <row r="33">
@@ -29827,28 +29827,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="C33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="D33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="E33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="F33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="G33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="H33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="I33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -29875,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="S33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="T33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="U33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="V33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="W33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="X33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="Y33" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="C34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="D34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="E34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="F34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="G34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="H34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="I34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="J34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="K34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="L34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="M34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="N34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="O34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="P34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="R34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="S34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="T34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="U34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="V34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="W34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="X34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="C35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="D35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="E35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="F35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="G35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="H35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="I35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="S35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="T35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="U35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="V35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="W35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="X35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="Y35" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
     </row>
     <row r="36">
@@ -30064,28 +30064,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="C36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="D36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="E36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="F36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="G36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="H36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="I36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="S36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="T36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="U36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="V36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="W36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="X36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="Y36" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="C37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="D37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="E37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="F37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="G37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="H37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="I37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="J37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="K37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="L37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="M37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="N37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="O37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="P37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="R37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="S37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="T37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="U37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="V37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="W37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="X37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.21912279105517</v>
+        <v>44.21912279105518</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="C38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="D38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="E38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="F38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="G38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="H38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="I38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="S38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="U38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="V38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="W38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="X38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="Y38" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="C39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="D39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="E39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="F39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="G39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="H39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="I39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="S39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="T39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="U39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="V39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="W39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="X39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="Y39" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="C40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="D40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="E40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="F40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="G40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="H40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="I40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="J40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="K40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="L40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="M40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="N40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="O40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="P40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="R40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="S40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="T40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="U40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="V40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="W40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="X40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
       <c r="Y40" t="n">
-        <v>23.89857870922506</v>
+        <v>23.89857870922494</v>
       </c>
     </row>
     <row r="41">
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35506,10 +35506,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>36.53441726865219</v>
       </c>
       <c r="P13" t="n">
-        <v>9.227848619506007</v>
+        <v>9.227848619506005</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35743,10 +35743,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>20.32054408183011</v>
+        <v>20.32054408183024</v>
       </c>
       <c r="K23" t="n">
         <v>104.0555615261842</v>
@@ -36366,19 +36366,19 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>223.5354762376127</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N23" t="n">
-        <v>240.2036942518359</v>
+        <v>240.203694251836</v>
       </c>
       <c r="O23" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
-        <v>122.8355458526557</v>
+        <v>122.8355458526559</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>4.368175972052986</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>263.5490090453888</v>
+        <v>263.5490090453889</v>
       </c>
       <c r="N24" t="n">
-        <v>166.5049438890125</v>
+        <v>99.72723028233483</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>10.00034161055977</v>
+        <v>10.00034161055991</v>
       </c>
       <c r="L25" t="n">
-        <v>59.85985869675876</v>
+        <v>59.8598586967589</v>
       </c>
       <c r="M25" t="n">
-        <v>71.85371039828321</v>
+        <v>71.85371039828334</v>
       </c>
       <c r="N25" t="n">
-        <v>76.40200581567122</v>
+        <v>76.40200581567134</v>
       </c>
       <c r="O25" t="n">
-        <v>56.8549613504823</v>
+        <v>56.85496135048243</v>
       </c>
       <c r="P25" t="n">
-        <v>29.54839270133611</v>
+        <v>29.54839270133625</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.409585831985215</v>
+        <v>20.32054408183014</v>
       </c>
       <c r="K26" t="n">
-        <v>104.0555615261842</v>
+        <v>136.3253949626269</v>
       </c>
       <c r="L26" t="n">
-        <v>181.8947995804632</v>
+        <v>196.2536747670609</v>
       </c>
       <c r="M26" t="n">
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>240.2036942518359</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>182.9718032775013</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
       </c>
       <c r="Q26" t="n">
-        <v>22.27913422189785</v>
+        <v>22.27913422189786</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>147.5248345803124</v>
+        <v>263.5490090453889</v>
       </c>
       <c r="N27" t="n">
-        <v>263.5490090453888</v>
+        <v>236.6004575388406</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>10.0003416105598</v>
+        <v>10.00034161055981</v>
       </c>
       <c r="L28" t="n">
-        <v>59.85985869675879</v>
+        <v>59.8598586967588</v>
       </c>
       <c r="M28" t="n">
-        <v>71.85371039828324</v>
+        <v>71.85371039828325</v>
       </c>
       <c r="N28" t="n">
-        <v>76.40200581567125</v>
+        <v>76.40200581567126</v>
       </c>
       <c r="O28" t="n">
         <v>56.85496135048233</v>
       </c>
       <c r="P28" t="n">
-        <v>29.54839270133614</v>
+        <v>29.54839270133615</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>20.32054408183014</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>136.3253949626269</v>
       </c>
       <c r="L29" t="n">
-        <v>214.1646330169058</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>233.5261754521575</v>
       </c>
       <c r="N29" t="n">
-        <v>222.292736001991</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36852,7 +36852,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
-        <v>22.27913422189785</v>
+        <v>22.27913422189786</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>195.0879847987504</v>
+        <v>10.5996235731432</v>
       </c>
       <c r="M30" t="n">
-        <v>263.5490090453889</v>
+        <v>263.5490090453888</v>
       </c>
       <c r="N30" t="n">
-        <v>263.5490090453889</v>
+        <v>263.5490090453888</v>
       </c>
       <c r="O30" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>10.0003416105598</v>
+        <v>10.00034161055981</v>
       </c>
       <c r="L31" t="n">
-        <v>59.85985869675879</v>
+        <v>59.8598586967588</v>
       </c>
       <c r="M31" t="n">
-        <v>71.85371039828324</v>
+        <v>71.85371039828325</v>
       </c>
       <c r="N31" t="n">
-        <v>76.40200581567125</v>
+        <v>76.40200581567126</v>
       </c>
       <c r="O31" t="n">
         <v>56.85496135048233</v>
       </c>
       <c r="P31" t="n">
-        <v>29.54839270133614</v>
+        <v>29.54839270133615</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>32.26983343644266</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
@@ -37077,19 +37077,19 @@
         <v>226.1139223715184</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>263.3864230566149</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>194.9210926321138</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>132.6679697205365</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.832423867880763</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,13 +37159,13 @@
         <v>273.9824260862227</v>
       </c>
       <c r="N33" t="n">
-        <v>273.9824260862227</v>
+        <v>16.21308162538668</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>53.3428148029906</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>21.94963096517232</v>
+        <v>21.94963096517233</v>
       </c>
       <c r="L34" t="n">
-        <v>71.80914805137131</v>
+        <v>71.80914805137132</v>
       </c>
       <c r="M34" t="n">
-        <v>83.80299975289576</v>
+        <v>83.80299975289577</v>
       </c>
       <c r="N34" t="n">
-        <v>88.35129517028376</v>
+        <v>88.35129517028378</v>
       </c>
       <c r="O34" t="n">
-        <v>68.80425070509484</v>
+        <v>68.80425070509486</v>
       </c>
       <c r="P34" t="n">
-        <v>41.49768205594866</v>
+        <v>41.49768205594867</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>21.94963096517232</v>
+        <v>21.94963096517233</v>
       </c>
       <c r="L37" t="n">
-        <v>71.80914805137131</v>
+        <v>71.80914805137132</v>
       </c>
       <c r="M37" t="n">
-        <v>83.80299975289576</v>
+        <v>83.80299975289577</v>
       </c>
       <c r="N37" t="n">
-        <v>88.35129517028376</v>
+        <v>88.35129517028378</v>
       </c>
       <c r="O37" t="n">
-        <v>68.80425070509484</v>
+        <v>68.80425070509486</v>
       </c>
       <c r="P37" t="n">
-        <v>41.49768205594866</v>
+        <v>41.49768205594867</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.629086883342211</v>
+        <v>1.629086883342083</v>
       </c>
       <c r="L40" t="n">
-        <v>51.4886039695412</v>
+        <v>51.48860396954107</v>
       </c>
       <c r="M40" t="n">
-        <v>63.48245567106565</v>
+        <v>63.48245567106552</v>
       </c>
       <c r="N40" t="n">
-        <v>68.03075108845366</v>
+        <v>68.03075108845353</v>
       </c>
       <c r="O40" t="n">
-        <v>48.48370662326474</v>
+        <v>48.48370662326461</v>
       </c>
       <c r="P40" t="n">
-        <v>21.17713797411855</v>
+        <v>21.17713797411842</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
